--- a/config_3.9/item_config.xlsx
+++ b/config_3.9/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1045">
   <si>
     <t>id|行号</t>
   </si>
@@ -459,9 +459,6 @@
     <t>prop_hammer_1</t>
   </si>
   <si>
-    <t>com_award_icon_cz1</t>
-  </si>
-  <si>
     <t>玩具锤</t>
   </si>
   <si>
@@ -778,9 +775,6 @@
     <t>fish_coin</t>
   </si>
   <si>
-    <t>com_icon_yb</t>
-  </si>
-  <si>
     <t>捕鱼币</t>
   </si>
   <si>
@@ -1474,10 +1468,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_hfsp</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>obj_fish_3d_free_bullet</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1542,10 +1532,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_btn_sd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>金币</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1587,10 +1573,6 @@
   </si>
   <si>
     <t>ty_icon_zs_30y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_15y</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3753,10 +3735,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_czyhq1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>5元优惠券</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3966,6 +3944,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3987,6 +3966,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4003,6 +3983,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4024,6 +4005,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4040,6 +4022,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4061,6 +4044,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4077,6 +4061,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4098,11 +4083,64 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>"</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_icon_yb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_15y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_czyhq1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_sd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hfsp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_jbzk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币周卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续7天，每天登陆免费领金币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_icon_10ylb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_icon_15ylb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_icon_30ylb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_icon_50ylb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4699,9 +4737,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L315" sqref="L315:L318"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F316" sqref="F316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4753,28 +4791,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4853,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>19</v>
@@ -4879,13 +4917,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>376</v>
+        <v>1033</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -4931,13 +4969,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4957,13 +4995,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -5611,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>103</v>
+        <v>1036</v>
       </c>
       <c r="G31" s="29">
         <v>1</v>
@@ -5620,13 +5658,13 @@
         <v>17</v>
       </c>
       <c r="I31" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="J31" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="J31" s="29" t="s">
+      <c r="L31" s="29" t="s">
         <v>105</v>
-      </c>
-      <c r="L31" s="29" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="29" customFormat="1">
@@ -5637,16 +5675,16 @@
         <v>30</v>
       </c>
       <c r="C32" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="29">
+        <v>1</v>
+      </c>
+      <c r="F32" s="29" t="s">
         <v>107</v>
-      </c>
-      <c r="D32" s="29">
-        <v>-1</v>
-      </c>
-      <c r="E32" s="29">
-        <v>1</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>108</v>
       </c>
       <c r="G32" s="29">
         <v>1</v>
@@ -5655,13 +5693,13 @@
         <v>18</v>
       </c>
       <c r="I32" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="J32" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="J32" s="29" t="s">
+      <c r="L32" s="31" t="s">
         <v>110</v>
-      </c>
-      <c r="L32" s="31" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="29" customFormat="1">
@@ -5672,7 +5710,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33" s="29">
         <v>-1</v>
@@ -5681,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G33" s="29">
         <v>1</v>
@@ -5690,13 +5728,13 @@
         <v>19</v>
       </c>
       <c r="I33" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J33" s="29" t="s">
+      <c r="L33" s="31" t="s">
         <v>114</v>
-      </c>
-      <c r="L33" s="31" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="29" customFormat="1">
@@ -5707,16 +5745,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="29">
+        <v>1</v>
+      </c>
+      <c r="F34" s="29" t="s">
         <v>116</v>
-      </c>
-      <c r="D34" s="29">
-        <v>-1</v>
-      </c>
-      <c r="E34" s="29">
-        <v>1</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>117</v>
       </c>
       <c r="G34" s="29">
         <v>1</v>
@@ -5725,13 +5763,13 @@
         <v>20</v>
       </c>
       <c r="I34" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="J34" s="29" t="s">
+      <c r="L34" s="31" t="s">
         <v>119</v>
-      </c>
-      <c r="L34" s="31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -5742,22 +5780,22 @@
         <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="J35" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -5768,16 +5806,16 @@
         <v>34</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D36" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -5786,10 +5824,10 @@
         <v>3</v>
       </c>
       <c r="I36" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="2" t="s">
@@ -5804,16 +5842,16 @@
         <v>35</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="D37" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -5822,10 +5860,10 @@
         <v>5</v>
       </c>
       <c r="I37" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J37" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="2" t="s">
@@ -5840,16 +5878,16 @@
         <v>36</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="D38" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -5858,10 +5896,10 @@
         <v>10</v>
       </c>
       <c r="I38" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J38" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="2" t="s">
@@ -5876,25 +5914,25 @@
         <v>37</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D39" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
       </c>
       <c r="I39" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="K39" s="5"/>
     </row>
@@ -5906,25 +5944,25 @@
         <v>38</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D40" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
       </c>
       <c r="I40" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J40" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="K40" s="5"/>
     </row>
@@ -5936,25 +5974,25 @@
         <v>39</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D41" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
       </c>
       <c r="I41" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J41" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="K41" s="5"/>
     </row>
@@ -5966,7 +6004,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D42" s="2">
         <v>-1</v>
@@ -5987,10 +6025,10 @@
         <v>97</v>
       </c>
       <c r="J42" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K42" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>99</v>
@@ -6004,7 +6042,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D43" s="2">
         <v>-1</v>
@@ -6013,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -6022,10 +6060,10 @@
         <v>9</v>
       </c>
       <c r="I43" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J43" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="2" t="s">
@@ -6040,16 +6078,16 @@
         <v>42</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="D44" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -6058,10 +6096,10 @@
         <v>8</v>
       </c>
       <c r="I44" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J44" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="2" t="s">
@@ -6076,16 +6114,16 @@
         <v>43</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="D45" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -6094,10 +6132,10 @@
         <v>6</v>
       </c>
       <c r="I45" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J45" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="2" t="s">
@@ -6112,16 +6150,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="D46" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E46" s="2">
-        <v>1</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -6130,10 +6168,10 @@
         <v>7</v>
       </c>
       <c r="I46" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J46" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="2" t="s">
@@ -6148,28 +6186,28 @@
         <v>45</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1</v>
-      </c>
-      <c r="F47" s="5" t="s">
+      <c r="J47" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="G47" s="2">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2">
-        <v>1</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="K47" s="5"/>
     </row>
@@ -6181,7 +6219,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D48" s="2">
         <v>-1</v>
@@ -6190,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
@@ -6199,10 +6237,10 @@
         <v>16</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -6215,7 +6253,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D49" s="2">
         <v>-1</v>
@@ -6224,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G49" s="2">
         <v>0</v>
@@ -6233,10 +6271,10 @@
         <v>15</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -6249,22 +6287,22 @@
         <v>48</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I50" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D50" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E50" s="2">
-        <v>1</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="J50" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K50" s="5"/>
     </row>
@@ -6276,7 +6314,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D51" s="2">
         <v>-1</v>
@@ -6285,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -6294,13 +6332,13 @@
         <v>11</v>
       </c>
       <c r="I51" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L51" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -6311,7 +6349,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D52" s="2">
         <v>-1</v>
@@ -6320,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -6329,13 +6367,13 @@
         <v>10</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="16.5">
@@ -6346,7 +6384,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D53" s="2">
         <v>-1</v>
@@ -6355,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G53" s="2">
         <v>0</v>
@@ -6364,10 +6402,10 @@
         <v>1</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="16.5">
@@ -6378,7 +6416,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D54" s="2">
         <v>-1</v>
@@ -6387,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -6396,13 +6434,13 @@
         <v>12</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N54" s="2">
         <v>7</v>
@@ -6416,7 +6454,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D55" s="2">
         <v>-1</v>
@@ -6425,7 +6463,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -6434,13 +6472,13 @@
         <v>14</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N55" s="2">
         <v>7</v>
@@ -6454,7 +6492,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D56" s="2">
         <v>-1</v>
@@ -6463,7 +6501,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
@@ -6472,13 +6510,13 @@
         <v>13</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N56" s="2">
         <v>7</v>
@@ -6492,7 +6530,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D57" s="2">
         <v>-1</v>
@@ -6501,7 +6539,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
@@ -6510,13 +6548,13 @@
         <v>6</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="16.5">
@@ -6527,7 +6565,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D58" s="2">
         <v>-1</v>
@@ -6536,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
@@ -6545,10 +6583,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N58" s="2">
         <v>6</v>
@@ -6562,7 +6600,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D59" s="2">
         <v>-1</v>
@@ -6571,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
@@ -6580,10 +6618,10 @@
         <v>2</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N59" s="2">
         <v>6</v>
@@ -6597,28 +6635,28 @@
         <v>58</v>
       </c>
       <c r="C60" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D60" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E60" s="2">
-        <v>1</v>
-      </c>
-      <c r="F60" s="5" t="s">
+      <c r="J60" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="G60" s="2">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2">
-        <v>1</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="J60" s="15" t="s">
-        <v>214</v>
       </c>
       <c r="N60" s="2">
         <v>6</v>
@@ -6632,7 +6670,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D61" s="2">
         <v>-1</v>
@@ -6641,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -6650,10 +6688,10 @@
         <v>3</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N61" s="2">
         <v>6</v>
@@ -6667,7 +6705,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D62" s="2">
         <v>-1</v>
@@ -6676,7 +6714,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G62" s="2">
         <v>1</v>
@@ -6685,10 +6723,10 @@
         <v>15</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N62" s="2">
         <v>6</v>
@@ -6702,31 +6740,31 @@
         <v>61</v>
       </c>
       <c r="C63" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D63" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2">
+        <v>1</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D63" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E63" s="2">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="J63" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="G63" s="2">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2">
-        <v>1</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="J63" s="15" t="s">
-        <v>224</v>
-      </c>
       <c r="L63" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="16.5">
@@ -6737,7 +6775,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D64" s="2">
         <v>-1</v>
@@ -6746,7 +6784,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
@@ -6755,10 +6793,10 @@
         <v>21</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="16.5">
@@ -6769,7 +6807,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D65" s="2">
         <v>-1</v>
@@ -6778,7 +6816,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
@@ -6787,13 +6825,13 @@
         <v>22</v>
       </c>
       <c r="I65" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="J65" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L65" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="J65" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="L65" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -6804,7 +6842,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D66" s="2">
         <v>-1</v>
@@ -6813,7 +6851,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G66" s="2">
         <v>0</v>
@@ -6822,10 +6860,10 @@
         <v>23</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J66" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -6836,7 +6874,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D67" s="2">
         <v>-1</v>
@@ -6845,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G67" s="2">
         <v>0</v>
@@ -6854,10 +6892,10 @@
         <v>24</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J67" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -6868,7 +6906,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D68" s="2">
         <v>-1</v>
@@ -6877,7 +6915,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G68" s="2">
         <v>0</v>
@@ -6886,10 +6924,10 @@
         <v>25</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J68" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -6900,7 +6938,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D69" s="2">
         <v>-1</v>
@@ -6909,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G69" s="2">
         <v>0</v>
@@ -6918,10 +6956,10 @@
         <v>26</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J69" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="16.5">
@@ -6932,7 +6970,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D70" s="2">
         <v>-1</v>
@@ -6941,22 +6979,22 @@
         <v>1</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2">
+        <v>1</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="J70" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="G70" s="2">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2">
-        <v>1</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="J70" s="15" t="s">
-        <v>224</v>
-      </c>
       <c r="L70" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="16.5">
@@ -6967,28 +7005,28 @@
         <v>69</v>
       </c>
       <c r="C71" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D71" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1</v>
+      </c>
+      <c r="I71" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D71" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E71" s="2">
-        <v>1</v>
-      </c>
-      <c r="F71" s="14" t="s">
+      <c r="J71" s="15" t="s">
         <v>253</v>
-      </c>
-      <c r="G71" s="2">
-        <v>1</v>
-      </c>
-      <c r="H71" s="2">
-        <v>1</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="J71" s="15" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="16.5">
@@ -6999,28 +7037,28 @@
         <v>70</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D72" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D72" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E72" s="2">
-        <v>1</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="G72" s="2">
-        <v>1</v>
-      </c>
-      <c r="H72" s="2">
-        <v>1</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="J72" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16.5">
@@ -7031,31 +7069,31 @@
         <v>71</v>
       </c>
       <c r="C73" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D73" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="J73" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="D73" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E73" s="2">
-        <v>1</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="G73" s="2">
-        <v>1</v>
-      </c>
-      <c r="H73" s="2">
-        <v>1</v>
-      </c>
-      <c r="I73" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="J73" s="15" t="s">
-        <v>262</v>
-      </c>
       <c r="L73" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N73" s="2">
         <v>3</v>
@@ -7069,31 +7107,31 @@
         <v>72</v>
       </c>
       <c r="C74" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D74" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="J74" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="D74" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E74" s="2">
-        <v>1</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="G74" s="2">
-        <v>1</v>
-      </c>
-      <c r="H74" s="2">
-        <v>1</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="J74" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L74" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N74" s="2">
         <v>3</v>
@@ -7107,31 +7145,31 @@
         <v>73</v>
       </c>
       <c r="C75" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D75" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="G75" s="2">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1</v>
+      </c>
+      <c r="I75" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D75" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E75" s="2">
-        <v>1</v>
-      </c>
-      <c r="F75" s="14" t="s">
+      <c r="J75" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="G75" s="2">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2">
-        <v>1</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="J75" s="15" t="s">
-        <v>269</v>
-      </c>
       <c r="L75" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N75" s="2">
         <v>3</v>
@@ -7145,7 +7183,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D76" s="2">
         <v>-1</v>
@@ -7154,7 +7192,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G76" s="2">
         <v>0</v>
@@ -7163,10 +7201,10 @@
         <v>1</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J76" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L76" s="5"/>
       <c r="N76" s="2">
@@ -7181,7 +7219,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D77" s="2">
         <v>-1</v>
@@ -7190,7 +7228,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G77" s="2">
         <v>1</v>
@@ -7199,13 +7237,13 @@
         <v>-100</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -7216,28 +7254,28 @@
         <v>76</v>
       </c>
       <c r="C78" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D78" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
+      <c r="I78" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D78" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E78" s="2">
-        <v>1</v>
-      </c>
-      <c r="F78" s="5" t="s">
+      <c r="J78" s="16" t="s">
         <v>278</v>
-      </c>
-      <c r="G78" s="2">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2">
-        <v>1</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="J78" s="16" t="s">
-        <v>280</v>
       </c>
       <c r="L78" s="5"/>
     </row>
@@ -7249,7 +7287,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D79" s="2">
         <v>-1</v>
@@ -7258,7 +7296,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G79" s="2">
         <v>0</v>
@@ -7267,10 +7305,10 @@
         <v>23</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J79" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="16.5">
@@ -7281,7 +7319,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D80" s="2">
         <v>-1</v>
@@ -7290,7 +7328,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -7299,10 +7337,10 @@
         <v>23</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="L80" s="5"/>
     </row>
@@ -7314,7 +7352,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D81" s="2">
         <v>-1</v>
@@ -7323,7 +7361,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G81" s="2">
         <v>1</v>
@@ -7332,13 +7370,13 @@
         <v>24</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O81" s="2">
         <v>4</v>
@@ -7352,7 +7390,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D82" s="2">
         <v>-1</v>
@@ -7361,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G82" s="2">
         <v>1</v>
@@ -7370,13 +7408,13 @@
         <v>25</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O82" s="2">
         <v>5</v>
@@ -7390,7 +7428,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D83" s="9">
         <v>-1</v>
@@ -7399,7 +7437,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G83" s="9">
         <v>1</v>
@@ -7408,10 +7446,10 @@
         <v>22</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J83" s="18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="16.5">
@@ -7422,7 +7460,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D84" s="11">
         <v>-1</v>
@@ -7431,7 +7469,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G84" s="11">
         <v>0</v>
@@ -7440,10 +7478,10 @@
         <v>23</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J84" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="16.5">
@@ -7454,7 +7492,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D85" s="2">
         <v>-1</v>
@@ -7463,7 +7501,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
@@ -7472,10 +7510,10 @@
         <v>24</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="16.5">
@@ -7486,7 +7524,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D86" s="2">
         <v>-1</v>
@@ -7495,7 +7533,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
@@ -7504,10 +7542,10 @@
         <v>25</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="16.5">
@@ -7518,7 +7556,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D87" s="2">
         <v>-1</v>
@@ -7527,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G87" s="2">
         <v>1</v>
@@ -7536,10 +7574,10 @@
         <v>26</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="16.5">
@@ -7550,7 +7588,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D88" s="2">
         <v>-1</v>
@@ -7559,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G88" s="2">
         <v>1</v>
@@ -7568,10 +7606,10 @@
         <v>27</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="16.5">
@@ -7582,7 +7620,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D89" s="2">
         <v>-1</v>
@@ -7591,7 +7629,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G89" s="2">
         <v>1</v>
@@ -7600,10 +7638,10 @@
         <v>28</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="16.5">
@@ -7614,7 +7652,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D90" s="2">
         <v>-1</v>
@@ -7623,7 +7661,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G90" s="2">
         <v>1</v>
@@ -7632,10 +7670,10 @@
         <v>29</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="16.5">
@@ -7646,7 +7684,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D91" s="2">
         <v>-1</v>
@@ -7655,7 +7693,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G91" s="2">
         <v>1</v>
@@ -7664,10 +7702,10 @@
         <v>30</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="16.5">
@@ -7678,7 +7716,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D92" s="2">
         <v>-1</v>
@@ -7687,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G92" s="2">
         <v>1</v>
@@ -7696,10 +7734,10 @@
         <v>31</v>
       </c>
       <c r="I92" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="J92" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="16.5">
@@ -7710,7 +7748,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D93" s="2">
         <v>-1</v>
@@ -7719,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G93" s="2">
         <v>1</v>
@@ -7728,10 +7766,10 @@
         <v>32</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="16.5">
@@ -7742,7 +7780,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D94" s="2">
         <v>-1</v>
@@ -7751,7 +7789,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G94" s="2">
         <v>1</v>
@@ -7760,13 +7798,13 @@
         <v>-100</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O94" s="2">
         <v>12</v>
@@ -7786,7 +7824,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D95" s="2">
         <v>-1</v>
@@ -7795,7 +7833,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G95" s="2">
         <v>0</v>
@@ -7804,10 +7842,10 @@
         <v>33</v>
       </c>
       <c r="I95" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="J95" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="16.5">
@@ -7818,7 +7856,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D96" s="2">
         <v>-1</v>
@@ -7827,7 +7865,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G96" s="2">
         <v>0</v>
@@ -7836,10 +7874,10 @@
         <v>34</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="16.5">
@@ -7850,7 +7888,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D97" s="2">
         <v>-1</v>
@@ -7859,7 +7897,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>347</v>
+        <v>1037</v>
       </c>
       <c r="G97" s="2">
         <v>1</v>
@@ -7868,10 +7906,10 @@
         <v>35</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N97" s="2">
         <v>9</v>
@@ -7885,7 +7923,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D98" s="2">
         <v>-1</v>
@@ -7894,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G98" s="2">
         <v>1</v>
@@ -7903,10 +7941,10 @@
         <v>36</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="N98" s="2">
         <v>9</v>
@@ -7920,7 +7958,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D99" s="2">
         <v>-1</v>
@@ -7929,7 +7967,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G99" s="2">
         <v>1</v>
@@ -7938,10 +7976,10 @@
         <v>37</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N99" s="2">
         <v>9</v>
@@ -7955,7 +7993,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D100" s="2">
         <v>-1</v>
@@ -7964,7 +8002,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G100" s="2">
         <v>1</v>
@@ -7973,10 +8011,10 @@
         <v>38</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N100" s="2">
         <v>9</v>
@@ -7990,7 +8028,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D101" s="2">
         <v>-1</v>
@@ -7999,7 +8037,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G101" s="2">
         <v>1</v>
@@ -8008,10 +8046,10 @@
         <v>39</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N101" s="2">
         <v>9</v>
@@ -8025,7 +8063,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D102" s="2">
         <v>-1</v>
@@ -8034,7 +8072,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G102" s="2">
         <v>1</v>
@@ -8043,10 +8081,10 @@
         <v>40</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N102" s="2">
         <v>9</v>
@@ -8060,7 +8098,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D103" s="2">
         <v>-1</v>
@@ -8069,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G103" s="2">
         <v>1</v>
@@ -8078,10 +8116,10 @@
         <v>41</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N103" s="2">
         <v>9</v>
@@ -8095,7 +8133,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D104" s="2">
         <v>-1</v>
@@ -8104,7 +8142,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G104" s="2">
         <v>1</v>
@@ -8113,10 +8151,10 @@
         <v>42</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="N104" s="2">
         <v>9</v>
@@ -8130,7 +8168,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D105" s="2">
         <v>-1</v>
@@ -8139,7 +8177,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G105" s="2">
         <v>1</v>
@@ -8148,10 +8186,10 @@
         <v>43</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="N105" s="2">
         <v>9</v>
@@ -8165,7 +8203,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D106" s="2">
         <v>-1</v>
@@ -8174,7 +8212,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G106" s="2">
         <v>1</v>
@@ -8183,10 +8221,10 @@
         <v>44</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N106" s="2">
         <v>9</v>
@@ -8200,7 +8238,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D107" s="2">
         <v>-1</v>
@@ -8209,7 +8247,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G107" s="2">
         <v>1</v>
@@ -8218,10 +8256,10 @@
         <v>32</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
@@ -8237,7 +8275,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D108" s="2">
         <v>-1</v>
@@ -8246,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>364</v>
+        <v>1035</v>
       </c>
       <c r="G108" s="2">
         <v>1</v>
@@ -8255,10 +8293,10 @@
         <v>33</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
@@ -8274,7 +8312,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D109" s="2">
         <v>-1</v>
@@ -8283,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G109" s="2">
         <v>1</v>
@@ -8292,10 +8330,10 @@
         <v>33</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="16.5">
@@ -8306,7 +8344,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="D110" s="2">
         <v>-1</v>
@@ -8315,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G110" s="2">
         <v>1</v>
@@ -8324,10 +8362,10 @@
         <v>34</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L110" s="5"/>
     </row>
@@ -8339,7 +8377,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D111" s="2">
         <v>-1</v>
@@ -8348,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G111" s="2">
         <v>1</v>
@@ -8357,13 +8395,13 @@
         <v>1</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N111" s="2">
         <v>3</v>
@@ -8377,7 +8415,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D112" s="2">
         <v>-1</v>
@@ -8386,7 +8424,7 @@
         <v>1</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G112" s="2">
         <v>1</v>
@@ -8395,13 +8433,13 @@
         <v>1</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N112" s="2">
         <v>3</v>
@@ -8415,7 +8453,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D113" s="2">
         <v>-1</v>
@@ -8424,7 +8462,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G113" s="2">
         <v>1</v>
@@ -8433,13 +8471,13 @@
         <v>1</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N113" s="2">
         <v>3</v>
@@ -8453,7 +8491,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D114" s="2">
         <v>-1</v>
@@ -8462,22 +8500,22 @@
         <v>1</v>
       </c>
       <c r="F114" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G114" s="2">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2">
+        <v>1</v>
+      </c>
+      <c r="I114" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="G114" s="2">
-        <v>1</v>
-      </c>
-      <c r="H114" s="2">
-        <v>1</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>402</v>
-      </c>
       <c r="J114" s="5" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N114" s="2">
         <v>3</v>
@@ -8491,7 +8529,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D115" s="2">
         <v>-1</v>
@@ -8500,7 +8538,7 @@
         <v>1</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G115" s="2">
         <v>1</v>
@@ -8509,13 +8547,13 @@
         <v>1</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N115" s="2">
         <v>3</v>
@@ -8529,7 +8567,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D116" s="2">
         <v>-1</v>
@@ -8538,7 +8576,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G116" s="2">
         <v>1</v>
@@ -8547,13 +8585,13 @@
         <v>1</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N116" s="2">
         <v>3</v>
@@ -8567,7 +8605,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D117" s="2">
         <v>-1</v>
@@ -8576,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G117" s="2">
         <v>0</v>
@@ -8585,10 +8623,10 @@
         <v>33</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
@@ -8601,7 +8639,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D118" s="2">
         <v>-1</v>
@@ -8610,7 +8648,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G118" s="2">
         <v>0</v>
@@ -8619,10 +8657,10 @@
         <v>36</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="16.5">
@@ -8633,7 +8671,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D119" s="2">
         <v>-1</v>
@@ -8642,7 +8680,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G119" s="2">
         <v>0</v>
@@ -8651,10 +8689,10 @@
         <v>37</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.5">
@@ -8665,7 +8703,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D120" s="2">
         <v>-1</v>
@@ -8674,7 +8712,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G120" s="2">
         <v>0</v>
@@ -8683,10 +8721,10 @@
         <v>38</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="16.5">
@@ -8697,7 +8735,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D121" s="2">
         <v>-1</v>
@@ -8706,7 +8744,7 @@
         <v>1</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G121" s="2">
         <v>0</v>
@@ -8715,10 +8753,10 @@
         <v>39</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="16.5">
@@ -8729,7 +8767,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D122" s="2">
         <v>-1</v>
@@ -8738,7 +8776,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G122" s="2">
         <v>0</v>
@@ -8747,10 +8785,10 @@
         <v>40</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="16.5">
@@ -8761,7 +8799,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D123" s="2">
         <v>-1</v>
@@ -8770,7 +8808,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="G123" s="2">
         <v>1</v>
@@ -8779,10 +8817,10 @@
         <v>41</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="N123" s="2">
         <v>1</v>
@@ -8796,7 +8834,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D124" s="2">
         <v>-1</v>
@@ -8805,7 +8843,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G124" s="2">
         <v>1</v>
@@ -8814,10 +8852,10 @@
         <v>42</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="N124" s="2">
         <v>1</v>
@@ -8831,7 +8869,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D125" s="2">
         <v>-1</v>
@@ -8840,7 +8878,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G125" s="2">
         <v>1</v>
@@ -8849,10 +8887,10 @@
         <v>43</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="N125" s="2">
         <v>1</v>
@@ -8866,7 +8904,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="D126" s="2">
         <v>-1</v>
@@ -8875,7 +8913,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
@@ -8884,10 +8922,10 @@
         <v>44</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="N126" s="2">
         <v>1</v>
@@ -8901,7 +8939,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D127" s="2">
         <v>-1</v>
@@ -8910,7 +8948,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="G127" s="2">
         <v>1</v>
@@ -8919,10 +8957,10 @@
         <v>45</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="N127" s="2">
         <v>1</v>
@@ -8936,7 +8974,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D128" s="2">
         <v>-1</v>
@@ -8945,7 +8983,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G128" s="2">
         <v>1</v>
@@ -8954,10 +8992,10 @@
         <v>46</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="N128" s="2">
         <v>1</v>
@@ -8971,7 +9009,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D129" s="2">
         <v>-1</v>
@@ -8980,7 +9018,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G129" s="2">
         <v>1</v>
@@ -8989,10 +9027,10 @@
         <v>47</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="N129" s="2">
         <v>1</v>
@@ -9006,7 +9044,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D130" s="2">
         <v>-1</v>
@@ -9015,7 +9053,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G130" s="2">
         <v>1</v>
@@ -9024,10 +9062,10 @@
         <v>48</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="N130" s="2">
         <v>1</v>
@@ -9041,7 +9079,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="33" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="D131" s="34">
         <v>-1</v>
@@ -9050,7 +9088,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="35" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="G131" s="34">
         <v>0</v>
@@ -9059,10 +9097,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="35" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="J131" s="35" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -9073,7 +9111,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D132" s="11">
         <v>-1</v>
@@ -9082,7 +9120,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G132" s="11">
         <v>0</v>
@@ -9091,10 +9129,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="12" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="J132" s="12" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -9105,7 +9143,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D133" s="11">
         <v>-1</v>
@@ -9114,7 +9152,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G133" s="11">
         <v>0</v>
@@ -9123,10 +9161,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="12" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -9137,7 +9175,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D134" s="11">
         <v>-1</v>
@@ -9146,7 +9184,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G134" s="11">
         <v>0</v>
@@ -9155,10 +9193,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="12" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="J134" s="12" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -9169,7 +9207,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D135" s="11">
         <v>-1</v>
@@ -9178,7 +9216,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G135" s="11">
         <v>0</v>
@@ -9187,10 +9225,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="12" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="J135" s="12" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -9201,7 +9239,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D136" s="11">
         <v>-1</v>
@@ -9210,7 +9248,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G136" s="11">
         <v>0</v>
@@ -9219,10 +9257,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="J136" s="12" t="s">
         <v>465</v>
-      </c>
-      <c r="J136" s="12" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -9233,7 +9271,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D137" s="11">
         <v>-1</v>
@@ -9242,7 +9280,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G137" s="11">
         <v>0</v>
@@ -9251,10 +9289,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="12" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="J137" s="12" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -9265,7 +9303,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D138" s="2">
         <v>-1</v>
@@ -9274,7 +9312,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G138" s="2">
         <v>0</v>
@@ -9283,10 +9321,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -9297,7 +9335,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D139" s="2">
         <v>-1</v>
@@ -9306,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G139" s="2">
         <v>0</v>
@@ -9315,10 +9353,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -9329,7 +9367,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D140" s="2">
         <v>-1</v>
@@ -9338,7 +9376,7 @@
         <v>1</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G140" s="2">
         <v>0</v>
@@ -9347,10 +9385,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -9361,7 +9399,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D141" s="2">
         <v>-1</v>
@@ -9370,7 +9408,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G141" s="2">
         <v>0</v>
@@ -9379,10 +9417,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -9393,7 +9431,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D142" s="2">
         <v>-1</v>
@@ -9402,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G142" s="2">
         <v>0</v>
@@ -9411,10 +9449,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -9425,7 +9463,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D143" s="2">
         <v>-1</v>
@@ -9434,7 +9472,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G143" s="2">
         <v>0</v>
@@ -9443,10 +9481,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -9457,7 +9495,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D144" s="2">
         <v>-1</v>
@@ -9466,7 +9504,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G144" s="2">
         <v>0</v>
@@ -9475,10 +9513,10 @@
         <v>33</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -9489,7 +9527,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D145" s="2">
         <v>-1</v>
@@ -9498,7 +9536,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G145" s="2">
         <v>0</v>
@@ -9507,10 +9545,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="J145" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="146" spans="1:14" s="11" customFormat="1" ht="16.5">
@@ -9521,7 +9559,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D146" s="11">
         <v>-1</v>
@@ -9530,7 +9568,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G146" s="11">
         <v>0</v>
@@ -9539,10 +9577,10 @@
         <v>33</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="J146" s="21" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="147" spans="1:14" s="11" customFormat="1" ht="16.5">
@@ -9553,7 +9591,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D147" s="11">
         <v>-1</v>
@@ -9562,7 +9600,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G147" s="11">
         <v>0</v>
@@ -9571,10 +9609,10 @@
         <v>33</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="J147" s="21" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="148" spans="1:14" s="11" customFormat="1" ht="16.5">
@@ -9585,7 +9623,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D148" s="11">
         <v>-1</v>
@@ -9594,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G148" s="11">
         <v>0</v>
@@ -9603,10 +9641,10 @@
         <v>33</v>
       </c>
       <c r="I148" s="12" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="J148" s="21" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="149" spans="1:14" s="11" customFormat="1" ht="16.5">
@@ -9617,7 +9655,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D149" s="11">
         <v>-1</v>
@@ -9626,7 +9664,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G149" s="11">
         <v>0</v>
@@ -9635,10 +9673,10 @@
         <v>33</v>
       </c>
       <c r="I149" s="12" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="J149" s="21" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="150" spans="1:14" s="11" customFormat="1" ht="16.5">
@@ -9649,7 +9687,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D150" s="11">
         <v>-1</v>
@@ -9658,7 +9696,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G150" s="11">
         <v>0</v>
@@ -9667,10 +9705,10 @@
         <v>33</v>
       </c>
       <c r="I150" s="12" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="J150" s="21" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="151" spans="1:14" s="11" customFormat="1" ht="16.5">
@@ -9681,7 +9719,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D151" s="11">
         <v>-1</v>
@@ -9690,7 +9728,7 @@
         <v>1</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G151" s="11">
         <v>0</v>
@@ -9699,10 +9737,10 @@
         <v>33</v>
       </c>
       <c r="I151" s="12" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="J151" s="21" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="152" spans="1:14" s="11" customFormat="1" ht="16.5">
@@ -9713,7 +9751,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D152" s="11">
         <v>-1</v>
@@ -9722,7 +9760,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G152" s="11">
         <v>0</v>
@@ -9731,10 +9769,10 @@
         <v>33</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="J152" s="21" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="153" spans="1:14" s="11" customFormat="1" ht="16.5">
@@ -9745,7 +9783,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D153" s="11">
         <v>-1</v>
@@ -9754,7 +9792,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="G153" s="11">
         <v>0</v>
@@ -9763,10 +9801,10 @@
         <v>33</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="J153" s="21" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="154" spans="1:14" s="11" customFormat="1" ht="16.5">
@@ -9777,7 +9815,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D154" s="11">
         <v>-1</v>
@@ -9786,7 +9824,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G154" s="11">
         <v>0</v>
@@ -9795,10 +9833,10 @@
         <v>33</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="J154" s="21" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="155" spans="1:14" s="11" customFormat="1">
@@ -9809,7 +9847,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D155" s="11">
         <v>-1</v>
@@ -9818,7 +9856,7 @@
         <v>1</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G155" s="11">
         <v>0</v>
@@ -9827,10 +9865,10 @@
         <v>33</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="156" spans="1:14" s="11" customFormat="1" ht="16.5">
@@ -9841,7 +9879,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D156" s="11">
         <v>-1</v>
@@ -9850,7 +9888,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G156" s="11">
         <v>0</v>
@@ -9859,10 +9897,10 @@
         <v>33</v>
       </c>
       <c r="I156" s="12" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J156" s="21" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="157" spans="1:14" s="11" customFormat="1" ht="16.5">
@@ -9873,7 +9911,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="22" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D157" s="11">
         <v>-1</v>
@@ -9882,7 +9920,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G157" s="11">
         <v>1</v>
@@ -9891,13 +9929,13 @@
         <v>34</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="L157" s="12" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="N157" s="11">
         <v>9</v>
@@ -9911,7 +9949,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D158" s="11">
         <v>-1</v>
@@ -9920,7 +9958,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G158" s="11">
         <v>1</v>
@@ -9929,13 +9967,13 @@
         <v>34</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="N158" s="11">
         <v>9</v>
@@ -9949,7 +9987,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="22" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D159" s="11">
         <v>-1</v>
@@ -9958,7 +9996,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G159" s="11">
         <v>1</v>
@@ -9967,13 +10005,13 @@
         <v>34</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="L159" s="12" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="N159" s="11">
         <v>9</v>
@@ -9987,7 +10025,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D160" s="11">
         <v>-1</v>
@@ -9996,7 +10034,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G160" s="11">
         <v>1</v>
@@ -10005,13 +10043,13 @@
         <v>34</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="N160" s="11">
         <v>9</v>
@@ -10025,7 +10063,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D161" s="11">
         <v>-1</v>
@@ -10034,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G161" s="11">
         <v>1</v>
@@ -10043,13 +10081,13 @@
         <v>34</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N161" s="11">
         <v>9</v>
@@ -10063,7 +10101,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D162" s="29">
         <v>-1</v>
@@ -10072,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="31" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="G162" s="29">
         <v>1</v>
@@ -10081,10 +10119,10 @@
         <v>34</v>
       </c>
       <c r="I162" s="31" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="J162" s="31" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="N162" s="29">
         <v>9</v>
@@ -10098,7 +10136,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="30" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D163" s="29">
         <v>-1</v>
@@ -10107,7 +10145,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="31" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G163" s="29">
         <v>1</v>
@@ -10116,10 +10154,10 @@
         <v>34</v>
       </c>
       <c r="I163" s="31" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="J163" s="31" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="N163" s="29">
         <v>9</v>
@@ -10133,7 +10171,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D164" s="29">
         <v>-1</v>
@@ -10142,7 +10180,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="31" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="G164" s="29">
         <v>1</v>
@@ -10151,10 +10189,10 @@
         <v>34</v>
       </c>
       <c r="I164" s="31" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="J164" s="31" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="N164" s="29">
         <v>9</v>
@@ -10168,7 +10206,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D165" s="29">
         <v>-1</v>
@@ -10177,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="31" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G165" s="29">
         <v>1</v>
@@ -10186,10 +10224,10 @@
         <v>34</v>
       </c>
       <c r="I165" s="31" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J165" s="31" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="N165" s="29">
         <v>9</v>
@@ -10203,7 +10241,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D166" s="29">
         <v>-1</v>
@@ -10212,7 +10250,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="31" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="G166" s="29">
         <v>1</v>
@@ -10221,10 +10259,10 @@
         <v>34</v>
       </c>
       <c r="I166" s="31" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="J166" s="31" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="N166" s="29">
         <v>9</v>
@@ -10238,7 +10276,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="22" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D167" s="11">
         <v>-1</v>
@@ -10247,7 +10285,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="G167" s="11">
         <v>1</v>
@@ -10256,10 +10294,10 @@
         <v>34</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="N167" s="11">
         <v>9</v>
@@ -10273,7 +10311,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D168" s="11">
         <v>-1</v>
@@ -10282,7 +10320,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G168" s="11">
         <v>1</v>
@@ -10291,10 +10329,10 @@
         <v>34</v>
       </c>
       <c r="I168" s="12" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J168" s="12" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="N168" s="11">
         <v>9</v>
@@ -10308,7 +10346,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D169" s="11">
         <v>-1</v>
@@ -10317,7 +10355,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="G169" s="11">
         <v>1</v>
@@ -10326,10 +10364,10 @@
         <v>34</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="N169" s="11">
         <v>9</v>
@@ -10343,7 +10381,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="22" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D170" s="11">
         <v>-1</v>
@@ -10352,7 +10390,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G170" s="11">
         <v>1</v>
@@ -10361,10 +10399,10 @@
         <v>34</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="N170" s="11">
         <v>9</v>
@@ -10378,7 +10416,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="22" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D171" s="11">
         <v>-1</v>
@@ -10387,7 +10425,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="G171" s="11">
         <v>1</v>
@@ -10396,10 +10434,10 @@
         <v>34</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="N171" s="11">
         <v>9</v>
@@ -10413,7 +10451,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="22" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D172" s="11">
         <v>-1</v>
@@ -10422,7 +10460,7 @@
         <v>1</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G172" s="11">
         <v>0</v>
@@ -10431,10 +10469,10 @@
         <v>33</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="J172" s="12" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="173" spans="1:14" s="13" customFormat="1">
@@ -10445,7 +10483,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D173" s="13">
         <v>-1</v>
@@ -10454,7 +10492,7 @@
         <v>1</v>
       </c>
       <c r="F173" s="13" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="G173" s="13">
         <v>1</v>
@@ -10463,10 +10501,10 @@
         <v>33</v>
       </c>
       <c r="I173" s="13" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="J173" s="13" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="174" spans="1:14" s="13" customFormat="1">
@@ -10477,7 +10515,7 @@
         <v>173</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D174" s="13">
         <v>-1</v>
@@ -10486,7 +10524,7 @@
         <v>1</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="G174" s="13">
         <v>1</v>
@@ -10495,10 +10533,10 @@
         <v>33</v>
       </c>
       <c r="I174" s="13" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="J174" s="13" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="175" spans="1:14" s="13" customFormat="1">
@@ -10509,7 +10547,7 @@
         <v>174</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D175" s="13">
         <v>-1</v>
@@ -10518,7 +10556,7 @@
         <v>1</v>
       </c>
       <c r="F175" s="13" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G175" s="13">
         <v>1</v>
@@ -10527,10 +10565,10 @@
         <v>33</v>
       </c>
       <c r="I175" s="13" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="J175" s="13" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="176" spans="1:14" s="23" customFormat="1">
@@ -10541,7 +10579,7 @@
         <v>175</v>
       </c>
       <c r="C176" s="24" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D176" s="23">
         <v>-1</v>
@@ -10550,7 +10588,7 @@
         <v>1</v>
       </c>
       <c r="F176" s="23" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G176" s="23">
         <v>0</v>
@@ -10559,10 +10597,10 @@
         <v>33</v>
       </c>
       <c r="I176" s="23" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="J176" s="23" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="177" spans="1:15" s="25" customFormat="1">
@@ -10573,7 +10611,7 @@
         <v>176</v>
       </c>
       <c r="C177" s="25" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D177" s="25">
         <v>-1</v>
@@ -10582,7 +10620,7 @@
         <v>1</v>
       </c>
       <c r="F177" s="25" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G177" s="25">
         <v>0</v>
@@ -10591,10 +10629,10 @@
         <v>33</v>
       </c>
       <c r="I177" s="25" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="J177" s="25" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="178" spans="1:15" ht="16.5">
@@ -10605,7 +10643,7 @@
         <v>177</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D178" s="2">
         <v>-1</v>
@@ -10614,7 +10652,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G178" s="2">
         <v>1</v>
@@ -10623,10 +10661,10 @@
         <v>32</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K178" s="5"/>
       <c r="L178" s="5"/>
@@ -10642,7 +10680,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="D179" s="2">
         <v>-1</v>
@@ -10651,7 +10689,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G179" s="2">
         <v>1</v>
@@ -10660,10 +10698,10 @@
         <v>33</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
@@ -10679,7 +10717,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="D180" s="2">
         <v>-1</v>
@@ -10688,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G180" s="2">
         <v>1</v>
@@ -10697,10 +10735,10 @@
         <v>33</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="J180" s="5" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="K180" s="5"/>
       <c r="L180" s="5"/>
@@ -10716,7 +10754,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D181" s="25">
         <v>-1</v>
@@ -10725,7 +10763,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="25" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G181" s="25">
         <v>0</v>
@@ -10734,10 +10772,10 @@
         <v>33</v>
       </c>
       <c r="I181" s="25" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="J181" s="25" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="182" spans="1:15" s="23" customFormat="1">
@@ -10748,7 +10786,7 @@
         <v>181</v>
       </c>
       <c r="C182" s="24" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D182" s="23">
         <v>-1</v>
@@ -10757,7 +10795,7 @@
         <v>1</v>
       </c>
       <c r="F182" s="23" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="G182" s="23">
         <v>1</v>
@@ -10766,13 +10804,13 @@
         <v>33</v>
       </c>
       <c r="I182" s="24" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="J182" s="23" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="L182" s="23" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="O182" s="23">
         <v>57</v>
@@ -10786,7 +10824,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="24" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D183" s="23">
         <v>-1</v>
@@ -10795,7 +10833,7 @@
         <v>1</v>
       </c>
       <c r="F183" s="23" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G183" s="23">
         <v>1</v>
@@ -10804,13 +10842,13 @@
         <v>33</v>
       </c>
       <c r="I183" s="24" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="J183" s="24" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="L183" s="24" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="O183" s="23">
         <v>58</v>
@@ -10824,7 +10862,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="24" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D184" s="23">
         <v>-1</v>
@@ -10833,7 +10871,7 @@
         <v>1</v>
       </c>
       <c r="F184" s="23" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G184" s="23">
         <v>1</v>
@@ -10842,13 +10880,13 @@
         <v>33</v>
       </c>
       <c r="I184" s="24" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="J184" s="24" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="L184" s="23" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="O184" s="23">
         <v>59</v>
@@ -10862,7 +10900,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D185" s="27">
         <v>-1</v>
@@ -10871,7 +10909,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="G185" s="27">
         <v>1</v>
@@ -10880,10 +10918,10 @@
         <v>1</v>
       </c>
       <c r="I185" s="28" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="J185" s="28" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="N185" s="27">
         <v>16</v>
@@ -10897,7 +10935,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="27" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D186" s="27">
         <v>-1</v>
@@ -10906,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="28" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="G186" s="27">
         <v>1</v>
@@ -10915,10 +10953,10 @@
         <v>2</v>
       </c>
       <c r="I186" s="28" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="J186" s="28" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="N186" s="27">
         <v>16</v>
@@ -10932,7 +10970,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="27" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D187" s="27">
         <v>-1</v>
@@ -10941,7 +10979,7 @@
         <v>1</v>
       </c>
       <c r="F187" s="28" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G187" s="27">
         <v>1</v>
@@ -10950,10 +10988,10 @@
         <v>3</v>
       </c>
       <c r="I187" s="28" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="J187" s="28" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="N187" s="27">
         <v>16</v>
@@ -10967,7 +11005,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="27" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D188" s="27">
         <v>-1</v>
@@ -10976,7 +11014,7 @@
         <v>1</v>
       </c>
       <c r="F188" s="28" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="G188" s="27">
         <v>1</v>
@@ -10985,10 +11023,10 @@
         <v>4</v>
       </c>
       <c r="I188" s="28" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="J188" s="28" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="N188" s="27">
         <v>16</v>
@@ -11002,7 +11040,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="28" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D189" s="27">
         <v>-1</v>
@@ -11011,7 +11049,7 @@
         <v>1</v>
       </c>
       <c r="F189" s="28" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="G189" s="27">
         <v>1</v>
@@ -11020,10 +11058,10 @@
         <v>5</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="J189" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N189" s="27">
         <v>16</v>
@@ -11037,7 +11075,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="28" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D190" s="27">
         <v>-1</v>
@@ -11046,7 +11084,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="27" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G190" s="27">
         <v>1</v>
@@ -11055,10 +11093,10 @@
         <v>6</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="J190" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N190" s="27">
         <v>16</v>
@@ -11072,7 +11110,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="28" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D191" s="27">
         <v>-1</v>
@@ -11081,7 +11119,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="27" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G191" s="27">
         <v>1</v>
@@ -11090,10 +11128,10 @@
         <v>7</v>
       </c>
       <c r="I191" s="28" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N191" s="27">
         <v>16</v>
@@ -11107,7 +11145,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="28" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D192" s="27">
         <v>-1</v>
@@ -11116,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="27" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="G192" s="27">
         <v>1</v>
@@ -11125,10 +11163,10 @@
         <v>8</v>
       </c>
       <c r="I192" s="28" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="J192" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N192" s="27">
         <v>16</v>
@@ -11142,7 +11180,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="28" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D193" s="27">
         <v>-1</v>
@@ -11151,7 +11189,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="G193" s="27">
         <v>1</v>
@@ -11160,10 +11198,10 @@
         <v>9</v>
       </c>
       <c r="I193" s="28" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="J193" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N193" s="27">
         <v>16</v>
@@ -11177,7 +11215,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="28" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D194" s="27">
         <v>-1</v>
@@ -11186,7 +11224,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="27" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="G194" s="27">
         <v>1</v>
@@ -11195,10 +11233,10 @@
         <v>10</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="J194" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N194" s="27">
         <v>16</v>
@@ -11212,7 +11250,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="28" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D195" s="27">
         <v>-1</v>
@@ -11221,7 +11259,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="G195" s="27">
         <v>1</v>
@@ -11230,10 +11268,10 @@
         <v>11</v>
       </c>
       <c r="I195" s="28" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="J195" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N195" s="27">
         <v>16</v>
@@ -11247,7 +11285,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="28" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D196" s="27">
         <v>-1</v>
@@ -11256,7 +11294,7 @@
         <v>1</v>
       </c>
       <c r="F196" s="27" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="G196" s="27">
         <v>1</v>
@@ -11265,10 +11303,10 @@
         <v>12</v>
       </c>
       <c r="I196" s="28" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="J196" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N196" s="27">
         <v>16</v>
@@ -11282,7 +11320,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D197" s="27">
         <v>-1</v>
@@ -11291,7 +11329,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="27" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G197" s="27">
         <v>1</v>
@@ -11300,10 +11338,10 @@
         <v>13</v>
       </c>
       <c r="I197" s="28" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="J197" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N197" s="27">
         <v>16</v>
@@ -11317,7 +11355,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D198" s="27">
         <v>-1</v>
@@ -11326,7 +11364,7 @@
         <v>1</v>
       </c>
       <c r="F198" s="27" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="G198" s="27">
         <v>1</v>
@@ -11335,10 +11373,10 @@
         <v>14</v>
       </c>
       <c r="I198" s="28" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="J198" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N198" s="27">
         <v>16</v>
@@ -11352,7 +11390,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D199" s="27">
         <v>-1</v>
@@ -11361,7 +11399,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="27" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="G199" s="27">
         <v>1</v>
@@ -11370,10 +11408,10 @@
         <v>15</v>
       </c>
       <c r="I199" s="28" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="J199" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N199" s="27">
         <v>16</v>
@@ -11387,7 +11425,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D200" s="27">
         <v>-1</v>
@@ -11396,7 +11434,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="27" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="G200" s="27">
         <v>1</v>
@@ -11405,10 +11443,10 @@
         <v>16</v>
       </c>
       <c r="I200" s="28" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="J200" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N200" s="27">
         <v>16</v>
@@ -11422,7 +11460,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D201" s="27">
         <v>-1</v>
@@ -11431,7 +11469,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="27" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="G201" s="27">
         <v>1</v>
@@ -11440,10 +11478,10 @@
         <v>17</v>
       </c>
       <c r="I201" s="28" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N201" s="27">
         <v>16</v>
@@ -11457,7 +11495,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D202" s="27">
         <v>-1</v>
@@ -11466,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="27" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="G202" s="27">
         <v>1</v>
@@ -11475,10 +11513,10 @@
         <v>18</v>
       </c>
       <c r="I202" s="28" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N202" s="27">
         <v>16</v>
@@ -11492,7 +11530,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="28" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D203" s="27">
         <v>-1</v>
@@ -11501,7 +11539,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="27" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G203" s="27">
         <v>1</v>
@@ -11510,10 +11548,10 @@
         <v>19</v>
       </c>
       <c r="I203" s="28" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N203" s="27">
         <v>16</v>
@@ -11527,7 +11565,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="28" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D204" s="27">
         <v>-1</v>
@@ -11536,7 +11574,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="27" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G204" s="27">
         <v>1</v>
@@ -11545,10 +11583,10 @@
         <v>20</v>
       </c>
       <c r="I204" s="28" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="J204" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N204" s="27">
         <v>16</v>
@@ -11562,7 +11600,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="28" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D205" s="27">
         <v>-1</v>
@@ -11571,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="27" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="G205" s="27">
         <v>1</v>
@@ -11580,10 +11618,10 @@
         <v>21</v>
       </c>
       <c r="I205" s="28" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="J205" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N205" s="27">
         <v>16</v>
@@ -11597,7 +11635,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D206" s="27">
         <v>-1</v>
@@ -11606,7 +11644,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="27" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="G206" s="27">
         <v>1</v>
@@ -11615,10 +11653,10 @@
         <v>22</v>
       </c>
       <c r="I206" s="28" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="J206" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N206" s="27">
         <v>16</v>
@@ -11632,7 +11670,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D207" s="27">
         <v>-1</v>
@@ -11641,7 +11679,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="27" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G207" s="27">
         <v>1</v>
@@ -11650,10 +11688,10 @@
         <v>23</v>
       </c>
       <c r="I207" s="28" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="J207" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N207" s="27">
         <v>16</v>
@@ -11667,7 +11705,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D208" s="27">
         <v>-1</v>
@@ -11676,7 +11714,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="27" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="G208" s="27">
         <v>1</v>
@@ -11685,10 +11723,10 @@
         <v>24</v>
       </c>
       <c r="I208" s="28" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="J208" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N208" s="27">
         <v>16</v>
@@ -11702,7 +11740,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D209" s="27">
         <v>-1</v>
@@ -11711,7 +11749,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="27" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="G209" s="27">
         <v>1</v>
@@ -11720,10 +11758,10 @@
         <v>25</v>
       </c>
       <c r="I209" s="28" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="J209" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N209" s="27">
         <v>16</v>
@@ -11737,7 +11775,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="D210" s="27">
         <v>-1</v>
@@ -11746,7 +11784,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="27" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G210" s="27">
         <v>1</v>
@@ -11755,10 +11793,10 @@
         <v>26</v>
       </c>
       <c r="I210" s="28" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="J210" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N210" s="27">
         <v>16</v>
@@ -11772,7 +11810,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="28" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D211" s="27">
         <v>-1</v>
@@ -11781,7 +11819,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="27" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G211" s="27">
         <v>1</v>
@@ -11790,10 +11828,10 @@
         <v>27</v>
       </c>
       <c r="I211" s="28" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="J211" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N211" s="27">
         <v>16</v>
@@ -11807,7 +11845,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="28" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D212" s="27">
         <v>-1</v>
@@ -11816,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="F212" s="27" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="G212" s="27">
         <v>1</v>
@@ -11825,10 +11863,10 @@
         <v>28</v>
       </c>
       <c r="I212" s="28" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="J212" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N212" s="27">
         <v>16</v>
@@ -11842,7 +11880,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="28" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D213" s="27">
         <v>-1</v>
@@ -11851,7 +11889,7 @@
         <v>1</v>
       </c>
       <c r="F213" s="27" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G213" s="27">
         <v>1</v>
@@ -11860,10 +11898,10 @@
         <v>29</v>
       </c>
       <c r="I213" s="28" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="J213" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N213" s="27">
         <v>16</v>
@@ -11877,7 +11915,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="28" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D214" s="27">
         <v>-1</v>
@@ -11886,7 +11924,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="27" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="G214" s="27">
         <v>1</v>
@@ -11895,10 +11933,10 @@
         <v>30</v>
       </c>
       <c r="I214" s="28" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="J214" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N214" s="27">
         <v>16</v>
@@ -11912,7 +11950,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="28" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D215" s="27">
         <v>-1</v>
@@ -11921,7 +11959,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="27" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G215" s="27">
         <v>1</v>
@@ -11930,10 +11968,10 @@
         <v>31</v>
       </c>
       <c r="I215" s="28" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="J215" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N215" s="27">
         <v>16</v>
@@ -11947,7 +11985,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="28" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D216" s="27">
         <v>-1</v>
@@ -11956,7 +11994,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="27" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="G216" s="27">
         <v>1</v>
@@ -11965,10 +12003,10 @@
         <v>32</v>
       </c>
       <c r="I216" s="28" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="J216" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N216" s="27">
         <v>16</v>
@@ -11982,7 +12020,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="28" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D217" s="27">
         <v>-1</v>
@@ -11991,7 +12029,7 @@
         <v>1</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="G217" s="27">
         <v>1</v>
@@ -12000,10 +12038,10 @@
         <v>33</v>
       </c>
       <c r="I217" s="28" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="J217" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N217" s="27">
         <v>16</v>
@@ -12017,7 +12055,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="28" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D218" s="27">
         <v>-1</v>
@@ -12026,7 +12064,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="27" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="G218" s="27">
         <v>1</v>
@@ -12035,10 +12073,10 @@
         <v>34</v>
       </c>
       <c r="I218" s="28" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="J218" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N218" s="27">
         <v>16</v>
@@ -12052,7 +12090,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="28" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D219" s="27">
         <v>-1</v>
@@ -12061,7 +12099,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="27" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="G219" s="27">
         <v>1</v>
@@ -12070,10 +12108,10 @@
         <v>35</v>
       </c>
       <c r="I219" s="28" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="J219" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N219" s="27">
         <v>16</v>
@@ -12087,7 +12125,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="28" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="D220" s="27">
         <v>-1</v>
@@ -12096,7 +12134,7 @@
         <v>1</v>
       </c>
       <c r="F220" s="28" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="G220" s="27">
         <v>1</v>
@@ -12105,10 +12143,10 @@
         <v>36</v>
       </c>
       <c r="I220" s="28" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="J220" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N220" s="27">
         <v>16</v>
@@ -12122,7 +12160,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="28" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D221" s="27">
         <v>-1</v>
@@ -12131,7 +12169,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="28" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="G221" s="27">
         <v>1</v>
@@ -12140,10 +12178,10 @@
         <v>38</v>
       </c>
       <c r="I221" s="28" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="J221" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N221" s="27">
         <v>16</v>
@@ -12157,7 +12195,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D222" s="27">
         <v>-1</v>
@@ -12166,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G222" s="27">
         <v>1</v>
@@ -12175,10 +12213,10 @@
         <v>39</v>
       </c>
       <c r="I222" s="28" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="J222" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N222" s="27">
         <v>16</v>
@@ -12192,7 +12230,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D223" s="27">
         <v>-1</v>
@@ -12201,7 +12239,7 @@
         <v>1</v>
       </c>
       <c r="F223" s="27" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G223" s="27">
         <v>1</v>
@@ -12210,10 +12248,10 @@
         <v>40</v>
       </c>
       <c r="I223" s="28" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="J223" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N223" s="27">
         <v>16</v>
@@ -12227,7 +12265,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D224" s="27">
         <v>-1</v>
@@ -12236,7 +12274,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="G224" s="27">
         <v>1</v>
@@ -12245,10 +12283,10 @@
         <v>41</v>
       </c>
       <c r="I224" s="28" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="J224" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N224" s="27">
         <v>16</v>
@@ -12262,7 +12300,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="27" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D225" s="27">
         <v>-1</v>
@@ -12271,7 +12309,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="G225" s="27">
         <v>1</v>
@@ -12280,10 +12318,10 @@
         <v>42</v>
       </c>
       <c r="I225" s="28" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="J225" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N225" s="27">
         <v>16</v>
@@ -12297,7 +12335,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D226" s="27">
         <v>-1</v>
@@ -12306,7 +12344,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="G226" s="27">
         <v>1</v>
@@ -12315,10 +12353,10 @@
         <v>43</v>
       </c>
       <c r="I226" s="28" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="J226" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N226" s="27">
         <v>16</v>
@@ -12332,7 +12370,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D227" s="27">
         <v>-1</v>
@@ -12341,7 +12379,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="G227" s="27">
         <v>1</v>
@@ -12350,10 +12388,10 @@
         <v>44</v>
       </c>
       <c r="I227" s="28" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="J227" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N227" s="27">
         <v>16</v>
@@ -12367,7 +12405,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D228" s="27">
         <v>-1</v>
@@ -12376,7 +12414,7 @@
         <v>1</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="G228" s="27">
         <v>1</v>
@@ -12385,10 +12423,10 @@
         <v>45</v>
       </c>
       <c r="I228" s="28" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="J228" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N228" s="27">
         <v>16</v>
@@ -12402,7 +12440,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D229" s="27">
         <v>-1</v>
@@ -12411,7 +12449,7 @@
         <v>1</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G229" s="27">
         <v>1</v>
@@ -12420,10 +12458,10 @@
         <v>46</v>
       </c>
       <c r="I229" s="28" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J229" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N229" s="27">
         <v>16</v>
@@ -12437,7 +12475,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D230" s="27">
         <v>-1</v>
@@ -12446,7 +12484,7 @@
         <v>1</v>
       </c>
       <c r="F230" s="27" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="G230" s="27">
         <v>1</v>
@@ -12455,10 +12493,10 @@
         <v>47</v>
       </c>
       <c r="I230" s="28" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="J230" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N230" s="27">
         <v>16</v>
@@ -12472,7 +12510,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D231" s="27">
         <v>-1</v>
@@ -12481,7 +12519,7 @@
         <v>1</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="G231" s="27">
         <v>1</v>
@@ -12490,10 +12528,10 @@
         <v>48</v>
       </c>
       <c r="I231" s="28" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="J231" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N231" s="27">
         <v>16</v>
@@ -12507,7 +12545,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D232" s="27">
         <v>-1</v>
@@ -12516,7 +12554,7 @@
         <v>1</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="G232" s="27">
         <v>1</v>
@@ -12525,10 +12563,10 @@
         <v>49</v>
       </c>
       <c r="I232" s="28" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="J232" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N232" s="27">
         <v>16</v>
@@ -12542,7 +12580,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D233" s="27">
         <v>-1</v>
@@ -12551,7 +12589,7 @@
         <v>1</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="G233" s="27">
         <v>1</v>
@@ -12560,10 +12598,10 @@
         <v>50</v>
       </c>
       <c r="I233" s="28" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="J233" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N233" s="27">
         <v>16</v>
@@ -12577,7 +12615,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D234" s="27">
         <v>-1</v>
@@ -12586,7 +12624,7 @@
         <v>1</v>
       </c>
       <c r="F234" s="27" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="G234" s="27">
         <v>1</v>
@@ -12595,10 +12633,10 @@
         <v>51</v>
       </c>
       <c r="I234" s="28" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="J234" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N234" s="27">
         <v>16</v>
@@ -12612,7 +12650,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D235" s="27">
         <v>-1</v>
@@ -12621,7 +12659,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G235" s="27">
         <v>1</v>
@@ -12630,10 +12668,10 @@
         <v>52</v>
       </c>
       <c r="I235" s="28" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="J235" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N235" s="27">
         <v>16</v>
@@ -12647,7 +12685,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D236" s="27">
         <v>-1</v>
@@ -12656,7 +12694,7 @@
         <v>1</v>
       </c>
       <c r="F236" s="27" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G236" s="27">
         <v>1</v>
@@ -12665,10 +12703,10 @@
         <v>53</v>
       </c>
       <c r="I236" s="28" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="J236" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N236" s="27">
         <v>16</v>
@@ -12682,7 +12720,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D237" s="27">
         <v>-1</v>
@@ -12691,7 +12729,7 @@
         <v>1</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="G237" s="27">
         <v>1</v>
@@ -12700,10 +12738,10 @@
         <v>54</v>
       </c>
       <c r="I237" s="28" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="J237" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N237" s="27">
         <v>16</v>
@@ -12717,7 +12755,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D238" s="27">
         <v>-1</v>
@@ -12726,7 +12764,7 @@
         <v>1</v>
       </c>
       <c r="F238" s="27" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="G238" s="27">
         <v>1</v>
@@ -12735,10 +12773,10 @@
         <v>55</v>
       </c>
       <c r="I238" s="28" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="J238" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N238" s="27">
         <v>16</v>
@@ -12752,7 +12790,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="27" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="D239" s="27">
         <v>-1</v>
@@ -12761,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G239" s="27">
         <v>1</v>
@@ -12770,10 +12808,10 @@
         <v>56</v>
       </c>
       <c r="I239" s="28" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="J239" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N239" s="27">
         <v>16</v>
@@ -12787,7 +12825,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D240" s="27">
         <v>-1</v>
@@ -12796,7 +12834,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="27" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="G240" s="27">
         <v>1</v>
@@ -12805,10 +12843,10 @@
         <v>57</v>
       </c>
       <c r="I240" s="28" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="J240" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N240" s="27">
         <v>16</v>
@@ -12822,7 +12860,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D241" s="27">
         <v>-1</v>
@@ -12831,7 +12869,7 @@
         <v>1</v>
       </c>
       <c r="F241" s="27" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="G241" s="27">
         <v>1</v>
@@ -12840,10 +12878,10 @@
         <v>58</v>
       </c>
       <c r="I241" s="28" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="J241" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N241" s="27">
         <v>16</v>
@@ -12857,7 +12895,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D242" s="27">
         <v>-1</v>
@@ -12866,7 +12904,7 @@
         <v>1</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G242" s="27">
         <v>1</v>
@@ -12875,10 +12913,10 @@
         <v>59</v>
       </c>
       <c r="I242" s="28" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="J242" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N242" s="27">
         <v>16</v>
@@ -12892,7 +12930,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D243" s="27">
         <v>-1</v>
@@ -12901,7 +12939,7 @@
         <v>1</v>
       </c>
       <c r="F243" s="27" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G243" s="27">
         <v>1</v>
@@ -12910,10 +12948,10 @@
         <v>60</v>
       </c>
       <c r="I243" s="28" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="J243" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N243" s="27">
         <v>16</v>
@@ -12927,7 +12965,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D244" s="27">
         <v>-1</v>
@@ -12936,7 +12974,7 @@
         <v>1</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="G244" s="27">
         <v>1</v>
@@ -12945,10 +12983,10 @@
         <v>61</v>
       </c>
       <c r="I244" s="28" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="J244" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N244" s="27">
         <v>16</v>
@@ -12962,7 +13000,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="27" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D245" s="27">
         <v>-1</v>
@@ -12971,7 +13009,7 @@
         <v>1</v>
       </c>
       <c r="F245" s="27" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G245" s="27">
         <v>1</v>
@@ -12980,10 +13018,10 @@
         <v>62</v>
       </c>
       <c r="I245" s="28" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="J245" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N245" s="27">
         <v>16</v>
@@ -12997,7 +13035,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="27" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D246" s="27">
         <v>-1</v>
@@ -13006,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="G246" s="27">
         <v>1</v>
@@ -13015,10 +13053,10 @@
         <v>63</v>
       </c>
       <c r="I246" s="28" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="J246" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N246" s="27">
         <v>16</v>
@@ -13032,7 +13070,7 @@
         <v>246</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D247" s="27">
         <v>-1</v>
@@ -13041,7 +13079,7 @@
         <v>1</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G247" s="27">
         <v>1</v>
@@ -13050,10 +13088,10 @@
         <v>64</v>
       </c>
       <c r="I247" s="28" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="J247" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N247" s="27">
         <v>16</v>
@@ -13067,7 +13105,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D248" s="27">
         <v>-1</v>
@@ -13076,7 +13114,7 @@
         <v>1</v>
       </c>
       <c r="F248" s="27" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="G248" s="27">
         <v>1</v>
@@ -13085,10 +13123,10 @@
         <v>65</v>
       </c>
       <c r="I248" s="28" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="J248" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N248" s="27">
         <v>16</v>
@@ -13102,7 +13140,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="27" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D249" s="27">
         <v>-1</v>
@@ -13111,7 +13149,7 @@
         <v>1</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="G249" s="27">
         <v>1</v>
@@ -13120,10 +13158,10 @@
         <v>66</v>
       </c>
       <c r="I249" s="28" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="J249" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N249" s="27">
         <v>16</v>
@@ -13137,7 +13175,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D250" s="27">
         <v>-1</v>
@@ -13146,7 +13184,7 @@
         <v>1</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="G250" s="27">
         <v>1</v>
@@ -13155,10 +13193,10 @@
         <v>67</v>
       </c>
       <c r="I250" s="28" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="J250" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N250" s="27">
         <v>16</v>
@@ -13172,7 +13210,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="27" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D251" s="27">
         <v>-1</v>
@@ -13181,7 +13219,7 @@
         <v>1</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="G251" s="27">
         <v>1</v>
@@ -13190,10 +13228,10 @@
         <v>68</v>
       </c>
       <c r="I251" s="28" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="J251" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N251" s="27">
         <v>16</v>
@@ -13207,7 +13245,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D252" s="27">
         <v>-1</v>
@@ -13216,7 +13254,7 @@
         <v>1</v>
       </c>
       <c r="F252" s="28" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="G252" s="27">
         <v>1</v>
@@ -13225,10 +13263,10 @@
         <v>68</v>
       </c>
       <c r="I252" s="28" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="J252" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="N252" s="27">
         <v>16</v>
@@ -13242,7 +13280,7 @@
         <v>252</v>
       </c>
       <c r="C253" s="28" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D253" s="27">
         <v>-1</v>
@@ -13251,7 +13289,7 @@
         <v>1</v>
       </c>
       <c r="F253" s="28" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="G253" s="27">
         <v>1</v>
@@ -13260,10 +13298,10 @@
         <v>69</v>
       </c>
       <c r="I253" s="28" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="J253" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N253" s="27">
         <v>16</v>
@@ -13277,7 +13315,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="28" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D254" s="27">
         <v>-1</v>
@@ -13286,7 +13324,7 @@
         <v>1</v>
       </c>
       <c r="F254" s="27" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G254" s="27">
         <v>1</v>
@@ -13295,10 +13333,10 @@
         <v>70</v>
       </c>
       <c r="I254" s="28" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="J254" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N254" s="27">
         <v>16</v>
@@ -13312,7 +13350,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="28" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D255" s="27">
         <v>-1</v>
@@ -13321,7 +13359,7 @@
         <v>1</v>
       </c>
       <c r="F255" s="27" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G255" s="27">
         <v>1</v>
@@ -13330,10 +13368,10 @@
         <v>71</v>
       </c>
       <c r="I255" s="28" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="J255" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N255" s="27">
         <v>16</v>
@@ -13347,7 +13385,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D256" s="27">
         <v>-1</v>
@@ -13356,7 +13394,7 @@
         <v>1</v>
       </c>
       <c r="F256" s="27" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="G256" s="27">
         <v>1</v>
@@ -13365,10 +13403,10 @@
         <v>72</v>
       </c>
       <c r="I256" s="28" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="J256" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N256" s="27">
         <v>16</v>
@@ -13382,7 +13420,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D257" s="27">
         <v>-1</v>
@@ -13391,7 +13429,7 @@
         <v>1</v>
       </c>
       <c r="F257" s="27" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="G257" s="27">
         <v>1</v>
@@ -13400,10 +13438,10 @@
         <v>73</v>
       </c>
       <c r="I257" s="28" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="J257" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N257" s="27">
         <v>16</v>
@@ -13417,7 +13455,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="28" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D258" s="27">
         <v>-1</v>
@@ -13426,7 +13464,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="27" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="G258" s="27">
         <v>1</v>
@@ -13435,10 +13473,10 @@
         <v>74</v>
       </c>
       <c r="I258" s="28" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="J258" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N258" s="27">
         <v>16</v>
@@ -13452,7 +13490,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="28" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D259" s="27">
         <v>-1</v>
@@ -13461,7 +13499,7 @@
         <v>1</v>
       </c>
       <c r="F259" s="27" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="G259" s="27">
         <v>1</v>
@@ -13470,10 +13508,10 @@
         <v>75</v>
       </c>
       <c r="I259" s="28" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="J259" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N259" s="27">
         <v>16</v>
@@ -13487,7 +13525,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D260" s="27">
         <v>-1</v>
@@ -13496,7 +13534,7 @@
         <v>1</v>
       </c>
       <c r="F260" s="27" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="G260" s="27">
         <v>1</v>
@@ -13505,10 +13543,10 @@
         <v>76</v>
       </c>
       <c r="I260" s="28" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="J260" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N260" s="27">
         <v>16</v>
@@ -13522,7 +13560,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D261" s="27">
         <v>-1</v>
@@ -13531,7 +13569,7 @@
         <v>1</v>
       </c>
       <c r="F261" s="27" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G261" s="27">
         <v>1</v>
@@ -13540,10 +13578,10 @@
         <v>77</v>
       </c>
       <c r="I261" s="28" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="J261" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N261" s="27">
         <v>16</v>
@@ -13557,7 +13595,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D262" s="27">
         <v>-1</v>
@@ -13566,7 +13604,7 @@
         <v>1</v>
       </c>
       <c r="F262" s="27" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="G262" s="27">
         <v>1</v>
@@ -13575,10 +13613,10 @@
         <v>78</v>
       </c>
       <c r="I262" s="28" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="J262" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N262" s="27">
         <v>16</v>
@@ -13592,7 +13630,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D263" s="27">
         <v>-1</v>
@@ -13601,7 +13639,7 @@
         <v>1</v>
       </c>
       <c r="F263" s="27" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="G263" s="27">
         <v>1</v>
@@ -13610,10 +13648,10 @@
         <v>79</v>
       </c>
       <c r="I263" s="28" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="J263" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N263" s="27">
         <v>16</v>
@@ -13627,7 +13665,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D264" s="27">
         <v>-1</v>
@@ -13636,7 +13674,7 @@
         <v>1</v>
       </c>
       <c r="F264" s="27" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="G264" s="27">
         <v>1</v>
@@ -13645,10 +13683,10 @@
         <v>80</v>
       </c>
       <c r="I264" s="28" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="J264" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N264" s="27">
         <v>16</v>
@@ -13662,7 +13700,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D265" s="27">
         <v>-1</v>
@@ -13671,7 +13709,7 @@
         <v>1</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="G265" s="27">
         <v>1</v>
@@ -13680,10 +13718,10 @@
         <v>81</v>
       </c>
       <c r="I265" s="28" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="J265" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N265" s="27">
         <v>16</v>
@@ -13697,7 +13735,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="28" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D266" s="27">
         <v>-1</v>
@@ -13706,7 +13744,7 @@
         <v>1</v>
       </c>
       <c r="F266" s="27" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="G266" s="27">
         <v>1</v>
@@ -13715,10 +13753,10 @@
         <v>82</v>
       </c>
       <c r="I266" s="28" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="J266" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N266" s="27">
         <v>16</v>
@@ -13732,7 +13770,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D267" s="27">
         <v>-1</v>
@@ -13741,7 +13779,7 @@
         <v>1</v>
       </c>
       <c r="F267" s="27" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G267" s="27">
         <v>1</v>
@@ -13750,10 +13788,10 @@
         <v>83</v>
       </c>
       <c r="I267" s="28" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="J267" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N267" s="27">
         <v>16</v>
@@ -13767,7 +13805,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="28" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D268" s="27">
         <v>-1</v>
@@ -13776,7 +13814,7 @@
         <v>1</v>
       </c>
       <c r="F268" s="27" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G268" s="27">
         <v>1</v>
@@ -13785,10 +13823,10 @@
         <v>84</v>
       </c>
       <c r="I268" s="28" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="J268" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N268" s="27">
         <v>16</v>
@@ -13802,7 +13840,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D269" s="27">
         <v>-1</v>
@@ -13811,7 +13849,7 @@
         <v>1</v>
       </c>
       <c r="F269" s="27" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="G269" s="27">
         <v>1</v>
@@ -13820,10 +13858,10 @@
         <v>85</v>
       </c>
       <c r="I269" s="28" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="J269" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N269" s="27">
         <v>16</v>
@@ -13837,7 +13875,7 @@
         <v>269</v>
       </c>
       <c r="C270" s="28" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D270" s="27">
         <v>-1</v>
@@ -13846,7 +13884,7 @@
         <v>1</v>
       </c>
       <c r="F270" s="27" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="G270" s="27">
         <v>1</v>
@@ -13855,10 +13893,10 @@
         <v>86</v>
       </c>
       <c r="I270" s="28" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="J270" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N270" s="27">
         <v>16</v>
@@ -13872,7 +13910,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D271" s="27">
         <v>-1</v>
@@ -13881,7 +13919,7 @@
         <v>1</v>
       </c>
       <c r="F271" s="27" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G271" s="27">
         <v>1</v>
@@ -13890,10 +13928,10 @@
         <v>87</v>
       </c>
       <c r="I271" s="28" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="J271" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N271" s="27">
         <v>16</v>
@@ -13907,7 +13945,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D272" s="27">
         <v>-1</v>
@@ -13916,7 +13954,7 @@
         <v>1</v>
       </c>
       <c r="F272" s="27" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="G272" s="27">
         <v>1</v>
@@ -13925,10 +13963,10 @@
         <v>88</v>
       </c>
       <c r="I272" s="28" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="J272" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N272" s="27">
         <v>16</v>
@@ -13942,7 +13980,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D273" s="27">
         <v>-1</v>
@@ -13951,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="F273" s="27" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="G273" s="27">
         <v>1</v>
@@ -13960,10 +13998,10 @@
         <v>89</v>
       </c>
       <c r="I273" s="28" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="J273" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N273" s="27">
         <v>16</v>
@@ -13977,7 +14015,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D274" s="27">
         <v>-1</v>
@@ -13986,7 +14024,7 @@
         <v>1</v>
       </c>
       <c r="F274" s="27" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G274" s="27">
         <v>1</v>
@@ -13995,10 +14033,10 @@
         <v>90</v>
       </c>
       <c r="I274" s="28" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="J274" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N274" s="27">
         <v>16</v>
@@ -14012,7 +14050,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="D275" s="27">
         <v>-1</v>
@@ -14021,7 +14059,7 @@
         <v>1</v>
       </c>
       <c r="F275" s="27" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G275" s="27">
         <v>1</v>
@@ -14030,10 +14068,10 @@
         <v>91</v>
       </c>
       <c r="I275" s="28" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="J275" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N275" s="27">
         <v>16</v>
@@ -14047,7 +14085,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="28" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D276" s="27">
         <v>-1</v>
@@ -14056,7 +14094,7 @@
         <v>1</v>
       </c>
       <c r="F276" s="27" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="G276" s="27">
         <v>1</v>
@@ -14065,10 +14103,10 @@
         <v>92</v>
       </c>
       <c r="I276" s="28" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="J276" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N276" s="27">
         <v>16</v>
@@ -14082,7 +14120,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="28" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D277" s="27">
         <v>-1</v>
@@ -14091,7 +14129,7 @@
         <v>1</v>
       </c>
       <c r="F277" s="27" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G277" s="27">
         <v>1</v>
@@ -14100,10 +14138,10 @@
         <v>93</v>
       </c>
       <c r="I277" s="28" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="J277" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N277" s="27">
         <v>16</v>
@@ -14117,7 +14155,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D278" s="27">
         <v>-1</v>
@@ -14126,7 +14164,7 @@
         <v>1</v>
       </c>
       <c r="F278" s="27" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="G278" s="27">
         <v>1</v>
@@ -14135,10 +14173,10 @@
         <v>94</v>
       </c>
       <c r="I278" s="28" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="J278" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N278" s="27">
         <v>16</v>
@@ -14152,7 +14190,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D279" s="27">
         <v>-1</v>
@@ -14161,7 +14199,7 @@
         <v>1</v>
       </c>
       <c r="F279" s="27" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G279" s="27">
         <v>1</v>
@@ -14170,10 +14208,10 @@
         <v>95</v>
       </c>
       <c r="I279" s="28" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="J279" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N279" s="27">
         <v>16</v>
@@ -14187,7 +14225,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="28" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D280" s="27">
         <v>-1</v>
@@ -14196,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="F280" s="27" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="G280" s="27">
         <v>1</v>
@@ -14205,10 +14243,10 @@
         <v>96</v>
       </c>
       <c r="I280" s="28" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="J280" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N280" s="27">
         <v>16</v>
@@ -14222,7 +14260,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="D281" s="27">
         <v>-1</v>
@@ -14231,7 +14269,7 @@
         <v>1</v>
       </c>
       <c r="F281" s="27" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="G281" s="27">
         <v>1</v>
@@ -14240,10 +14278,10 @@
         <v>97</v>
       </c>
       <c r="I281" s="28" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="J281" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N281" s="27">
         <v>16</v>
@@ -14257,7 +14295,7 @@
         <v>281</v>
       </c>
       <c r="C282" s="28" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D282" s="27">
         <v>-1</v>
@@ -14266,7 +14304,7 @@
         <v>1</v>
       </c>
       <c r="F282" s="27" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="G282" s="27">
         <v>1</v>
@@ -14275,10 +14313,10 @@
         <v>98</v>
       </c>
       <c r="I282" s="28" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="J282" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N282" s="27">
         <v>16</v>
@@ -14292,7 +14330,7 @@
         <v>282</v>
       </c>
       <c r="C283" s="28" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D283" s="27">
         <v>-1</v>
@@ -14301,7 +14339,7 @@
         <v>1</v>
       </c>
       <c r="F283" s="27" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="G283" s="27">
         <v>1</v>
@@ -14310,10 +14348,10 @@
         <v>99</v>
       </c>
       <c r="I283" s="28" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="J283" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N283" s="27">
         <v>16</v>
@@ -14327,7 +14365,7 @@
         <v>283</v>
       </c>
       <c r="C284" s="28" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="D284" s="27">
         <v>-1</v>
@@ -14336,7 +14374,7 @@
         <v>1</v>
       </c>
       <c r="F284" s="28" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="G284" s="27">
         <v>1</v>
@@ -14345,10 +14383,10 @@
         <v>99</v>
       </c>
       <c r="I284" s="28" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="J284" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N284" s="27">
         <v>16</v>
@@ -14362,7 +14400,7 @@
         <v>284</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D285" s="11">
         <v>-1</v>
@@ -14371,7 +14409,7 @@
         <v>1</v>
       </c>
       <c r="F285" s="12" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="G285" s="11">
         <v>0</v>
@@ -14380,10 +14418,10 @@
         <v>33</v>
       </c>
       <c r="I285" s="12" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="J285" s="12" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="286" spans="1:14" s="11" customFormat="1">
@@ -14394,7 +14432,7 @@
         <v>285</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D286" s="11">
         <v>-1</v>
@@ -14403,7 +14441,7 @@
         <v>1</v>
       </c>
       <c r="F286" s="11" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G286" s="11">
         <v>0</v>
@@ -14412,10 +14450,10 @@
         <v>33</v>
       </c>
       <c r="I286" s="11" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="J286" s="11" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="287" spans="1:14" s="11" customFormat="1">
@@ -14426,7 +14464,7 @@
         <v>286</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D287" s="11">
         <v>-1</v>
@@ -14435,7 +14473,7 @@
         <v>1</v>
       </c>
       <c r="F287" s="11" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="G287" s="11">
         <v>0</v>
@@ -14444,10 +14482,10 @@
         <v>33</v>
       </c>
       <c r="I287" s="11" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="J287" s="11" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="288" spans="1:14" s="11" customFormat="1">
@@ -14458,16 +14496,16 @@
         <v>287</v>
       </c>
       <c r="C288" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="D288" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E288" s="11">
+        <v>1</v>
+      </c>
+      <c r="F288" s="12" t="s">
         <v>808</v>
-      </c>
-      <c r="D288" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E288" s="11">
-        <v>1</v>
-      </c>
-      <c r="F288" s="12" t="s">
-        <v>813</v>
       </c>
       <c r="G288" s="11">
         <v>0</v>
@@ -14476,10 +14514,10 @@
         <v>33</v>
       </c>
       <c r="I288" s="12" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="J288" s="12" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="289" spans="1:12" s="11" customFormat="1">
@@ -14490,7 +14528,7 @@
         <v>288</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="D289" s="11">
         <v>-1</v>
@@ -14499,7 +14537,7 @@
         <v>1</v>
       </c>
       <c r="F289" s="12" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G289" s="11">
         <v>0</v>
@@ -14508,10 +14546,10 @@
         <v>33</v>
       </c>
       <c r="I289" s="12" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="J289" s="12" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="11" customFormat="1">
@@ -14522,7 +14560,7 @@
         <v>289</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="D290" s="11">
         <v>-1</v>
@@ -14531,7 +14569,7 @@
         <v>1</v>
       </c>
       <c r="F290" s="12" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="G290" s="11">
         <v>0</v>
@@ -14540,10 +14578,10 @@
         <v>33</v>
       </c>
       <c r="I290" s="12" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J290" s="12" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="11" customFormat="1">
@@ -14554,7 +14592,7 @@
         <v>290</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="D291" s="11">
         <v>-1</v>
@@ -14563,7 +14601,7 @@
         <v>1</v>
       </c>
       <c r="F291" s="12" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="G291" s="11">
         <v>0</v>
@@ -14572,10 +14610,10 @@
         <v>33</v>
       </c>
       <c r="I291" s="12" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="J291" s="12" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="36" customFormat="1" ht="16.5">
@@ -14586,7 +14624,7 @@
         <v>291</v>
       </c>
       <c r="C292" s="37" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D292" s="36">
         <v>-1</v>
@@ -14595,7 +14633,7 @@
         <v>1</v>
       </c>
       <c r="F292" s="37" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="G292" s="36">
         <v>1</v>
@@ -14604,13 +14642,13 @@
         <v>33</v>
       </c>
       <c r="I292" s="37" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="J292" s="37" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="L292" s="41" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="293" spans="1:12" s="36" customFormat="1" ht="16.5">
@@ -14621,7 +14659,7 @@
         <v>292</v>
       </c>
       <c r="C293" s="37" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="D293" s="36">
         <v>-1</v>
@@ -14630,7 +14668,7 @@
         <v>1</v>
       </c>
       <c r="F293" s="37" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="G293" s="36">
         <v>1</v>
@@ -14639,13 +14677,13 @@
         <v>33</v>
       </c>
       <c r="I293" s="37" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="J293" s="37" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="L293" s="41" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="294" spans="1:12" s="36" customFormat="1" ht="16.5">
@@ -14656,7 +14694,7 @@
         <v>293</v>
       </c>
       <c r="C294" s="37" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="D294" s="36">
         <v>-1</v>
@@ -14665,7 +14703,7 @@
         <v>1</v>
       </c>
       <c r="F294" s="37" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="G294" s="36">
         <v>1</v>
@@ -14674,13 +14712,13 @@
         <v>33</v>
       </c>
       <c r="I294" s="37" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="J294" s="37" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="L294" s="41" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="295" spans="1:12" s="11" customFormat="1">
@@ -14691,7 +14729,7 @@
         <v>294</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="D295" s="11">
         <v>-1</v>
@@ -14700,7 +14738,7 @@
         <v>1</v>
       </c>
       <c r="F295" s="11" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="G295" s="11">
         <v>1</v>
@@ -14709,10 +14747,10 @@
         <v>33</v>
       </c>
       <c r="I295" s="12" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="J295" s="12" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="296" spans="1:12" s="11" customFormat="1">
@@ -14723,7 +14761,7 @@
         <v>295</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="D296" s="11">
         <v>-1</v>
@@ -14732,7 +14770,7 @@
         <v>1</v>
       </c>
       <c r="F296" s="11" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="G296" s="11">
         <v>1</v>
@@ -14741,10 +14779,10 @@
         <v>33</v>
       </c>
       <c r="I296" s="12" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="J296" s="12" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="297" spans="1:12" s="11" customFormat="1">
@@ -14755,7 +14793,7 @@
         <v>296</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="D297" s="11">
         <v>-1</v>
@@ -14764,7 +14802,7 @@
         <v>1</v>
       </c>
       <c r="F297" s="11" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="G297" s="11">
         <v>1</v>
@@ -14773,10 +14811,10 @@
         <v>33</v>
       </c>
       <c r="I297" s="12" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="J297" s="12" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="298" spans="1:12" s="11" customFormat="1">
@@ -14787,7 +14825,7 @@
         <v>297</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D298" s="11">
         <v>-1</v>
@@ -14796,7 +14834,7 @@
         <v>1</v>
       </c>
       <c r="F298" s="11" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="G298" s="11">
         <v>1</v>
@@ -14805,10 +14843,10 @@
         <v>33</v>
       </c>
       <c r="I298" s="12" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="J298" s="12" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="299" spans="1:12" s="11" customFormat="1" ht="16.5">
@@ -14819,7 +14857,7 @@
         <v>298</v>
       </c>
       <c r="C299" s="19" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="D299" s="11">
         <v>-1</v>
@@ -14828,7 +14866,7 @@
         <v>1</v>
       </c>
       <c r="F299" s="22" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="G299" s="11">
         <v>0</v>
@@ -14837,10 +14875,10 @@
         <v>1</v>
       </c>
       <c r="I299" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J299" s="12" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
     </row>
     <row r="300" spans="1:12" s="11" customFormat="1" ht="16.5">
@@ -14851,7 +14889,7 @@
         <v>299</v>
       </c>
       <c r="C300" s="19" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="D300" s="11">
         <v>-1</v>
@@ -14860,7 +14898,7 @@
         <v>1</v>
       </c>
       <c r="F300" s="12" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="G300" s="11">
         <v>0</v>
@@ -14869,10 +14907,10 @@
         <v>1</v>
       </c>
       <c r="I300" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J300" s="12" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="301" spans="1:12" s="11" customFormat="1" ht="16.5">
@@ -14883,7 +14921,7 @@
         <v>300</v>
       </c>
       <c r="C301" s="19" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="D301" s="11">
         <v>-1</v>
@@ -14892,7 +14930,7 @@
         <v>1</v>
       </c>
       <c r="F301" s="12" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="G301" s="11">
         <v>0</v>
@@ -14901,10 +14939,10 @@
         <v>1</v>
       </c>
       <c r="I301" s="12" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="J301" s="12" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
     </row>
     <row r="302" spans="1:12" s="11" customFormat="1" ht="16.5">
@@ -14915,7 +14953,7 @@
         <v>301</v>
       </c>
       <c r="C302" s="19" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="D302" s="11">
         <v>-1</v>
@@ -14924,7 +14962,7 @@
         <v>1</v>
       </c>
       <c r="F302" s="12" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="G302" s="11">
         <v>0</v>
@@ -14933,10 +14971,10 @@
         <v>1</v>
       </c>
       <c r="I302" s="12" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="J302" s="12" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
     </row>
     <row r="303" spans="1:12" s="11" customFormat="1" ht="16.5">
@@ -14947,7 +14985,7 @@
         <v>302</v>
       </c>
       <c r="C303" s="19" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="D303" s="11">
         <v>-1</v>
@@ -14956,7 +14994,7 @@
         <v>1</v>
       </c>
       <c r="F303" s="22" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="G303" s="11">
         <v>0</v>
@@ -14965,10 +15003,10 @@
         <v>1</v>
       </c>
       <c r="I303" s="12" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="J303" s="12" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
     </row>
     <row r="304" spans="1:12" s="11" customFormat="1" ht="16.5">
@@ -14979,7 +15017,7 @@
         <v>303</v>
       </c>
       <c r="C304" s="19" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="D304" s="11">
         <v>-1</v>
@@ -14988,7 +15026,7 @@
         <v>1</v>
       </c>
       <c r="F304" s="22" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="G304" s="11">
         <v>0</v>
@@ -14997,10 +15035,10 @@
         <v>1</v>
       </c>
       <c r="I304" s="12" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="J304" s="12" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="305" spans="1:12" s="11" customFormat="1" ht="16.5">
@@ -15011,7 +15049,7 @@
         <v>304</v>
       </c>
       <c r="C305" s="19" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D305" s="11">
         <v>-1</v>
@@ -15020,7 +15058,7 @@
         <v>1</v>
       </c>
       <c r="F305" s="22" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="G305" s="11">
         <v>0</v>
@@ -15029,10 +15067,10 @@
         <v>1</v>
       </c>
       <c r="I305" s="12" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="J305" s="12" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="306" spans="1:12" s="11" customFormat="1" ht="16.5">
@@ -15043,7 +15081,7 @@
         <v>305</v>
       </c>
       <c r="C306" s="19" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="D306" s="11">
         <v>-1</v>
@@ -15052,7 +15090,7 @@
         <v>1</v>
       </c>
       <c r="F306" s="12" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="G306" s="11">
         <v>0</v>
@@ -15061,10 +15099,10 @@
         <v>1</v>
       </c>
       <c r="I306" s="12" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="J306" s="12" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="307" spans="1:12" s="11" customFormat="1" ht="16.5">
@@ -15075,7 +15113,7 @@
         <v>306</v>
       </c>
       <c r="C307" s="19" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="D307" s="11">
         <v>-1</v>
@@ -15084,7 +15122,7 @@
         <v>1</v>
       </c>
       <c r="F307" s="12" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="G307" s="11">
         <v>0</v>
@@ -15093,10 +15131,10 @@
         <v>1</v>
       </c>
       <c r="I307" s="12" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="J307" s="12" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="308" spans="1:12" s="38" customFormat="1" ht="16.5">
@@ -15107,7 +15145,7 @@
         <v>307</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="D308" s="11">
         <v>-1</v>
@@ -15116,7 +15154,7 @@
         <v>1</v>
       </c>
       <c r="F308" s="19" t="s">
-        <v>981</v>
+        <v>1034</v>
       </c>
       <c r="G308" s="11">
         <v>1</v>
@@ -15125,16 +15163,16 @@
         <v>1</v>
       </c>
       <c r="I308" s="12" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="J308" s="40" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="K308" s="38" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="L308" s="39" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="309" spans="1:12" s="38" customFormat="1" ht="16.5">
@@ -15145,7 +15183,7 @@
         <v>308</v>
       </c>
       <c r="C309" s="12" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="D309" s="11">
         <v>-1</v>
@@ -15154,7 +15192,7 @@
         <v>1</v>
       </c>
       <c r="F309" s="19" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="G309" s="11">
         <v>1</v>
@@ -15163,16 +15201,16 @@
         <v>1</v>
       </c>
       <c r="I309" s="12" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="J309" s="40" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="K309" s="38" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="L309" s="39" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="310" spans="1:12" s="38" customFormat="1" ht="16.5">
@@ -15183,7 +15221,7 @@
         <v>309</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="D310" s="11">
         <v>-1</v>
@@ -15192,7 +15230,7 @@
         <v>1</v>
       </c>
       <c r="F310" s="19" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="G310" s="11">
         <v>1</v>
@@ -15201,16 +15239,16 @@
         <v>1</v>
       </c>
       <c r="I310" s="12" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="J310" s="40" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="K310" s="38" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="L310" s="39" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="311" spans="1:12" s="38" customFormat="1" ht="16.5">
@@ -15221,7 +15259,7 @@
         <v>310</v>
       </c>
       <c r="C311" s="12" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="D311" s="11">
         <v>-1</v>
@@ -15230,7 +15268,7 @@
         <v>1</v>
       </c>
       <c r="F311" s="19" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="G311" s="11">
         <v>1</v>
@@ -15239,16 +15277,16 @@
         <v>1</v>
       </c>
       <c r="I311" s="12" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="J311" s="40" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="K311" s="38" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="L311" s="39" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="312" spans="1:12" s="38" customFormat="1" ht="16.5">
@@ -15259,7 +15297,7 @@
         <v>311</v>
       </c>
       <c r="C312" s="12" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="D312" s="11">
         <v>-1</v>
@@ -15268,7 +15306,7 @@
         <v>1</v>
       </c>
       <c r="F312" s="19" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="G312" s="11">
         <v>1</v>
@@ -15277,16 +15315,16 @@
         <v>1</v>
       </c>
       <c r="I312" s="12" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="J312" s="40" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="K312" s="38" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="L312" s="39" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="313" spans="1:12" s="38" customFormat="1" ht="16.5">
@@ -15297,7 +15335,7 @@
         <v>312</v>
       </c>
       <c r="C313" s="12" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="D313" s="11">
         <v>-1</v>
@@ -15306,7 +15344,7 @@
         <v>1</v>
       </c>
       <c r="F313" s="19" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="G313" s="11">
         <v>1</v>
@@ -15315,16 +15353,16 @@
         <v>1</v>
       </c>
       <c r="I313" s="12" t="s">
+        <v>994</v>
+      </c>
+      <c r="J313" s="40" t="s">
         <v>1000</v>
       </c>
-      <c r="J313" s="40" t="s">
-        <v>1006</v>
-      </c>
       <c r="K313" s="38" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="L313" s="39" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="314" spans="1:12" s="11" customFormat="1" ht="16.5">
@@ -15335,7 +15373,7 @@
         <v>313</v>
       </c>
       <c r="C314" s="19" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="D314" s="11">
         <v>-1</v>
@@ -15344,7 +15382,7 @@
         <v>1</v>
       </c>
       <c r="F314" s="22" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="G314" s="11">
         <v>0</v>
@@ -15353,10 +15391,10 @@
         <v>1</v>
       </c>
       <c r="I314" s="12" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="J314" s="12" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="315" spans="1:12" ht="16.5">
@@ -15367,7 +15405,7 @@
         <v>314</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="D315" s="11">
         <v>-1</v>
@@ -15376,16 +15414,22 @@
         <v>1</v>
       </c>
       <c r="F315" s="19" t="s">
-        <v>981</v>
+        <v>1042</v>
+      </c>
+      <c r="G315" s="2">
+        <v>0</v>
+      </c>
+      <c r="H315" s="11">
+        <v>1</v>
       </c>
       <c r="I315" s="5" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="J315" s="2" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="L315" s="5" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="316" spans="1:12" ht="16.5">
@@ -15396,7 +15440,7 @@
         <v>315</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="D316" s="11">
         <v>-1</v>
@@ -15405,16 +15449,22 @@
         <v>1</v>
       </c>
       <c r="F316" s="19" t="s">
-        <v>986</v>
+        <v>1044</v>
+      </c>
+      <c r="G316" s="2">
+        <v>0</v>
+      </c>
+      <c r="H316" s="11">
+        <v>1</v>
       </c>
       <c r="I316" s="5" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="J316" s="2" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="L316" s="5" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="317" spans="1:12" ht="16.5">
@@ -15425,7 +15475,7 @@
         <v>316</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="D317" s="11">
         <v>-1</v>
@@ -15434,16 +15484,22 @@
         <v>1</v>
       </c>
       <c r="F317" s="19" t="s">
-        <v>990</v>
+        <v>1041</v>
+      </c>
+      <c r="G317" s="2">
+        <v>0</v>
+      </c>
+      <c r="H317" s="11">
+        <v>1</v>
       </c>
       <c r="I317" s="5" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="J317" s="2" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="L317" s="5" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="318" spans="1:12" ht="16.5">
@@ -15454,7 +15510,7 @@
         <v>317</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="D318" s="11">
         <v>-1</v>
@@ -15463,20 +15519,52 @@
         <v>1</v>
       </c>
       <c r="F318" s="19" t="s">
-        <v>993</v>
+        <v>1043</v>
+      </c>
+      <c r="G318" s="2">
+        <v>0</v>
+      </c>
+      <c r="H318" s="11">
+        <v>1</v>
       </c>
       <c r="I318" s="5" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="J318" s="2" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="L318" s="5" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="319" spans="1:12">
-      <c r="A319" s="11"/>
+      <c r="A319" s="11">
+        <v>318</v>
+      </c>
+      <c r="B319" s="2">
+        <v>318</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D319" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E319" s="2">
+        <v>1</v>
+      </c>
+      <c r="G319" s="2">
+        <v>0</v>
+      </c>
+      <c r="H319" s="11">
+        <v>1</v>
+      </c>
+      <c r="I319" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J319" s="5" t="s">
+        <v>1040</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_3.9/item_config.xlsx
+++ b/config_3.9/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1045">
   <si>
     <t>id|行号</t>
   </si>
@@ -3886,71 +3886,55 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>500话费碎片+狂暴卡*5+双倍奖励卡*5</t>
+  </si>
+  <si>
+    <t>250000福利券赛门票一张+18888金币</t>
+  </si>
+  <si>
+    <t>500话费碎片+苹果大战太阳道具*10</t>
+  </si>
+  <si>
+    <t>1500话费碎片+苹果大战铲子道具*3</t>
+  </si>
+  <si>
+    <t>prop_ty_csbox</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_wild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_doubled</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_1000flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_lb1","prop_ty_xybox"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xrxsfl_15box</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_icon_15ylb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>15元礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>50元礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10元礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>30元礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>500话费碎片+狂暴卡*5+双倍奖励卡*5</t>
-  </si>
-  <si>
-    <t>250000福利券赛门票一张+18888金币</t>
-  </si>
-  <si>
-    <t>500话费碎片+苹果大战太阳道具*10</t>
-  </si>
-  <si>
-    <t>1500话费碎片+苹果大战铲子道具*3</t>
-  </si>
-  <si>
-    <t>prop_ty_csbox</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_xrxsfl_50box</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_xrxsfl_10box</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_xrxsfl_30box</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_wild</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_doubled</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pms_4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_1000flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_ty_lb1","prop_ty_xybox"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_xrxsfl_15box</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3962,6 +3946,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3983,11 +3968,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>"</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xrxsfl_50box</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_icon_50ylb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>50元礼包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3999,6 +3997,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4020,11 +4019,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>"</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xrxsfl_10box</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_icon_10ylb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10元礼包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4036,6 +4048,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4057,11 +4070,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>"</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xrxsfl_30box</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_icon_30ylb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>30元礼包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4073,6 +4099,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4094,6 +4121,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4102,7 +4130,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>礼盒</t>
+    <t>obj_jbzk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币周卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续7天，每天登陆免费领金币</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4687,9 +4723,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K127" sqref="K127"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A315" sqref="A315:XFD319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8854,7 +8890,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="D126" s="2">
         <v>-1</v>
@@ -8863,7 +8899,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
@@ -9047,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="34" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="J131" s="34" t="s">
         <v>931</v>
@@ -10630,7 +10666,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="D179" s="2">
         <v>-1</v>
@@ -10667,7 +10703,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="D180" s="2">
         <v>-1</v>
@@ -14574,7 +14610,7 @@
         <v>291</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D292" s="11">
         <v>-1</v>
@@ -14668,7 +14704,7 @@
         <v>980</v>
       </c>
       <c r="L294" s="38" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="295" spans="1:12" s="11" customFormat="1">
@@ -15355,7 +15391,7 @@
         <v>314</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D315" s="11">
         <v>-1</v>
@@ -15364,16 +15400,22 @@
         <v>1</v>
       </c>
       <c r="F315" s="19" t="s">
-        <v>981</v>
+        <v>1027</v>
+      </c>
+      <c r="G315" s="2">
+        <v>0</v>
+      </c>
+      <c r="H315" s="11">
+        <v>1</v>
       </c>
       <c r="I315" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J315" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="J315" s="2" t="s">
-        <v>1019</v>
-      </c>
       <c r="L315" s="5" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="316" spans="1:12" ht="16.5">
@@ -15384,7 +15426,7 @@
         <v>315</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="D316" s="11">
         <v>-1</v>
@@ -15393,16 +15435,22 @@
         <v>1</v>
       </c>
       <c r="F316" s="19" t="s">
-        <v>986</v>
+        <v>1031</v>
+      </c>
+      <c r="G316" s="2">
+        <v>0</v>
+      </c>
+      <c r="H316" s="11">
+        <v>1</v>
       </c>
       <c r="I316" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J316" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="J316" s="2" t="s">
-        <v>1020</v>
-      </c>
       <c r="L316" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="317" spans="1:12" ht="16.5">
@@ -15413,7 +15461,7 @@
         <v>316</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>1025</v>
+        <v>1034</v>
       </c>
       <c r="D317" s="11">
         <v>-1</v>
@@ -15422,16 +15470,22 @@
         <v>1</v>
       </c>
       <c r="F317" s="19" t="s">
-        <v>990</v>
+        <v>1035</v>
+      </c>
+      <c r="G317" s="2">
+        <v>0</v>
+      </c>
+      <c r="H317" s="11">
+        <v>1</v>
       </c>
       <c r="I317" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J317" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>1021</v>
-      </c>
       <c r="L317" s="5" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="318" spans="1:12" ht="16.5">
@@ -15442,7 +15496,7 @@
         <v>317</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
       <c r="D318" s="11">
         <v>-1</v>
@@ -15451,20 +15505,52 @@
         <v>1</v>
       </c>
       <c r="F318" s="19" t="s">
-        <v>993</v>
+        <v>1039</v>
+      </c>
+      <c r="G318" s="2">
+        <v>0</v>
+      </c>
+      <c r="H318" s="11">
+        <v>1</v>
       </c>
       <c r="I318" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J318" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="J318" s="2" t="s">
-        <v>1022</v>
-      </c>
       <c r="L318" s="5" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="319" spans="1:12">
-      <c r="A319" s="11"/>
+      <c r="A319" s="11">
+        <v>318</v>
+      </c>
+      <c r="B319" s="2">
+        <v>318</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D319" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E319" s="2">
+        <v>1</v>
+      </c>
+      <c r="G319" s="2">
+        <v>0</v>
+      </c>
+      <c r="H319" s="11">
+        <v>1</v>
+      </c>
+      <c r="I319" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J319" s="5" t="s">
+        <v>1044</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_3.9/item_config.xlsx
+++ b/config_3.9/item_config.xlsx
@@ -3926,10 +3926,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prop_xrxsfl_15box</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>xrxsfl_icon_15ylb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3977,10 +3973,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prop_xrxsfl_50box</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>xrxsfl_icon_50ylb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4028,10 +4020,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prop_xrxsfl_10box</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>xrxsfl_icon_10ylb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4079,10 +4067,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prop_xrxsfl_30box</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>xrxsfl_icon_30ylb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4140,6 +4124,18 @@
   <si>
     <t>连续7天，每天登陆免费领金币</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_xrxsfl_15box</t>
+  </si>
+  <si>
+    <t>obj_xrxsfl_50box</t>
+  </si>
+  <si>
+    <t>obj_xrxsfl_10box</t>
+  </si>
+  <si>
+    <t>obj_xrxsfl_30box</t>
   </si>
 </sst>
 </file>
@@ -4725,7 +4721,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A315" sqref="A315:XFD319"/>
+      <selection pane="bottomLeft" activeCell="C315" sqref="C315:C318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15391,16 +15387,16 @@
         <v>314</v>
       </c>
       <c r="C315" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D315" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E315" s="11">
+        <v>1</v>
+      </c>
+      <c r="F315" s="19" t="s">
         <v>1026</v>
-      </c>
-      <c r="D315" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E315" s="11">
-        <v>1</v>
-      </c>
-      <c r="F315" s="19" t="s">
-        <v>1027</v>
       </c>
       <c r="G315" s="2">
         <v>0</v>
@@ -15409,13 +15405,13 @@
         <v>1</v>
       </c>
       <c r="I315" s="5" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="J315" s="2" t="s">
         <v>1015</v>
       </c>
       <c r="L315" s="5" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="316" spans="1:12" ht="16.5">
@@ -15426,7 +15422,7 @@
         <v>315</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>1030</v>
+        <v>1042</v>
       </c>
       <c r="D316" s="11">
         <v>-1</v>
@@ -15435,7 +15431,7 @@
         <v>1</v>
       </c>
       <c r="F316" s="19" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G316" s="2">
         <v>0</v>
@@ -15444,13 +15440,13 @@
         <v>1</v>
       </c>
       <c r="I316" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="J316" s="2" t="s">
         <v>1016</v>
       </c>
       <c r="L316" s="5" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="317" spans="1:12" ht="16.5">
@@ -15461,7 +15457,7 @@
         <v>316</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>1034</v>
+        <v>1043</v>
       </c>
       <c r="D317" s="11">
         <v>-1</v>
@@ -15470,7 +15466,7 @@
         <v>1</v>
       </c>
       <c r="F317" s="19" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="G317" s="2">
         <v>0</v>
@@ -15479,13 +15475,13 @@
         <v>1</v>
       </c>
       <c r="I317" s="5" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="J317" s="2" t="s">
         <v>1017</v>
       </c>
       <c r="L317" s="5" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="318" spans="1:12" ht="16.5">
@@ -15496,7 +15492,7 @@
         <v>317</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="D318" s="11">
         <v>-1</v>
@@ -15505,7 +15501,7 @@
         <v>1</v>
       </c>
       <c r="F318" s="19" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="G318" s="2">
         <v>0</v>
@@ -15514,13 +15510,13 @@
         <v>1</v>
       </c>
       <c r="I318" s="5" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="J318" s="2" t="s">
         <v>1018</v>
       </c>
       <c r="L318" s="5" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -15531,7 +15527,7 @@
         <v>318</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="D319" s="2">
         <v>-1</v>
@@ -15546,10 +15542,10 @@
         <v>1</v>
       </c>
       <c r="I319" s="5" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="J319" s="5" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.9/item_config.xlsx
+++ b/config_3.9/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="1049">
   <si>
     <t>id|行号</t>
   </si>
@@ -3753,10 +3753,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_czyhq1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>5元优惠券</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4136,6 +4132,26 @@
   </si>
   <si>
     <t>obj_xrxsfl_30box</t>
+  </si>
+  <si>
+    <t>obj_xrxsfl_5_50box</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_czyhq1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_czyhq1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5～50元红包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启后获得优惠券，再商城单笔充值≥50元档次可用</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4717,11 +4733,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q319"/>
+  <dimension ref="A1:Q320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C315" sqref="C315:C318"/>
+      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A320" sqref="A320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8886,7 +8902,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D126" s="2">
         <v>-1</v>
@@ -8895,7 +8911,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
@@ -9079,7 +9095,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="34" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="J131" s="34" t="s">
         <v>931</v>
@@ -10662,7 +10678,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D179" s="2">
         <v>-1</v>
@@ -10699,7 +10715,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D180" s="2">
         <v>-1</v>
@@ -10777,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="F182" s="23" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G182" s="23">
         <v>1</v>
@@ -14606,7 +14622,7 @@
         <v>291</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D292" s="11">
         <v>-1</v>
@@ -14630,7 +14646,7 @@
         <v>978</v>
       </c>
       <c r="L292" s="38" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="293" spans="1:12" s="11" customFormat="1" ht="16.5">
@@ -14665,7 +14681,7 @@
         <v>979</v>
       </c>
       <c r="L293" s="38" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="294" spans="1:12" s="11" customFormat="1" ht="16.5">
@@ -14685,7 +14701,7 @@
         <v>1</v>
       </c>
       <c r="F294" s="12" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G294" s="11">
         <v>1</v>
@@ -14700,7 +14716,7 @@
         <v>980</v>
       </c>
       <c r="L294" s="38" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="295" spans="1:12" s="11" customFormat="1">
@@ -15127,7 +15143,7 @@
         <v>307</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D308" s="11">
         <v>-1</v>
@@ -15136,25 +15152,25 @@
         <v>1</v>
       </c>
       <c r="F308" s="19" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G308" s="11">
+        <v>1</v>
+      </c>
+      <c r="H308" s="11">
+        <v>1</v>
+      </c>
+      <c r="I308" s="12" t="s">
         <v>981</v>
       </c>
-      <c r="G308" s="11">
-        <v>1</v>
-      </c>
-      <c r="H308" s="11">
-        <v>1</v>
-      </c>
-      <c r="I308" s="12" t="s">
+      <c r="J308" s="37" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K308" s="35" t="s">
         <v>982</v>
       </c>
-      <c r="J308" s="37" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K308" s="35" t="s">
+      <c r="L308" s="36" t="s">
         <v>983</v>
-      </c>
-      <c r="L308" s="36" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="309" spans="1:12" s="35" customFormat="1" ht="16.5">
@@ -15165,34 +15181,34 @@
         <v>308</v>
       </c>
       <c r="C309" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="D309" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E309" s="11">
+        <v>1</v>
+      </c>
+      <c r="F309" s="19" t="s">
         <v>985</v>
       </c>
-      <c r="D309" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E309" s="11">
-        <v>1</v>
-      </c>
-      <c r="F309" s="19" t="s">
+      <c r="G309" s="11">
+        <v>1</v>
+      </c>
+      <c r="H309" s="11">
+        <v>1</v>
+      </c>
+      <c r="I309" s="12" t="s">
         <v>986</v>
       </c>
-      <c r="G309" s="11">
-        <v>1</v>
-      </c>
-      <c r="H309" s="11">
-        <v>1</v>
-      </c>
-      <c r="I309" s="12" t="s">
+      <c r="J309" s="37" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K309" s="35" t="s">
+        <v>982</v>
+      </c>
+      <c r="L309" s="36" t="s">
         <v>987</v>
-      </c>
-      <c r="J309" s="37" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K309" s="35" t="s">
-        <v>983</v>
-      </c>
-      <c r="L309" s="36" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="310" spans="1:12" s="35" customFormat="1" ht="16.5">
@@ -15203,34 +15219,34 @@
         <v>309</v>
       </c>
       <c r="C310" s="12" t="s">
+        <v>988</v>
+      </c>
+      <c r="D310" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E310" s="11">
+        <v>1</v>
+      </c>
+      <c r="F310" s="19" t="s">
         <v>989</v>
       </c>
-      <c r="D310" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E310" s="11">
-        <v>1</v>
-      </c>
-      <c r="F310" s="19" t="s">
+      <c r="G310" s="11">
+        <v>1</v>
+      </c>
+      <c r="H310" s="11">
+        <v>1</v>
+      </c>
+      <c r="I310" s="12" t="s">
         <v>990</v>
       </c>
-      <c r="G310" s="11">
-        <v>1</v>
-      </c>
-      <c r="H310" s="11">
-        <v>1</v>
-      </c>
-      <c r="I310" s="12" t="s">
-        <v>991</v>
-      </c>
       <c r="J310" s="37" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="K310" s="35" t="s">
+        <v>982</v>
+      </c>
+      <c r="L310" s="36" t="s">
         <v>983</v>
-      </c>
-      <c r="L310" s="36" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="311" spans="1:12" s="35" customFormat="1" ht="16.5">
@@ -15241,34 +15257,34 @@
         <v>310</v>
       </c>
       <c r="C311" s="12" t="s">
+        <v>991</v>
+      </c>
+      <c r="D311" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E311" s="11">
+        <v>1</v>
+      </c>
+      <c r="F311" s="19" t="s">
         <v>992</v>
       </c>
-      <c r="D311" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E311" s="11">
-        <v>1</v>
-      </c>
-      <c r="F311" s="19" t="s">
+      <c r="G311" s="11">
+        <v>1</v>
+      </c>
+      <c r="H311" s="11">
+        <v>1</v>
+      </c>
+      <c r="I311" s="12" t="s">
         <v>993</v>
       </c>
-      <c r="G311" s="11">
-        <v>1</v>
-      </c>
-      <c r="H311" s="11">
-        <v>1</v>
-      </c>
-      <c r="I311" s="12" t="s">
-        <v>994</v>
-      </c>
       <c r="J311" s="37" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="K311" s="35" t="s">
+        <v>982</v>
+      </c>
+      <c r="L311" s="36" t="s">
         <v>983</v>
-      </c>
-      <c r="L311" s="36" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="312" spans="1:12" s="35" customFormat="1" ht="16.5">
@@ -15279,34 +15295,34 @@
         <v>311</v>
       </c>
       <c r="C312" s="12" t="s">
+        <v>994</v>
+      </c>
+      <c r="D312" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E312" s="11">
+        <v>1</v>
+      </c>
+      <c r="F312" s="19" t="s">
         <v>995</v>
       </c>
-      <c r="D312" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E312" s="11">
-        <v>1</v>
-      </c>
-      <c r="F312" s="19" t="s">
+      <c r="G312" s="11">
+        <v>1</v>
+      </c>
+      <c r="H312" s="11">
+        <v>1</v>
+      </c>
+      <c r="I312" s="12" t="s">
         <v>996</v>
       </c>
-      <c r="G312" s="11">
-        <v>1</v>
-      </c>
-      <c r="H312" s="11">
-        <v>1</v>
-      </c>
-      <c r="I312" s="12" t="s">
-        <v>997</v>
-      </c>
       <c r="J312" s="37" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K312" s="35" t="s">
+        <v>982</v>
+      </c>
+      <c r="L312" s="36" t="s">
         <v>983</v>
-      </c>
-      <c r="L312" s="36" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="313" spans="1:12" s="35" customFormat="1" ht="16.5">
@@ -15317,34 +15333,34 @@
         <v>312</v>
       </c>
       <c r="C313" s="12" t="s">
+        <v>997</v>
+      </c>
+      <c r="D313" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E313" s="11">
+        <v>1</v>
+      </c>
+      <c r="F313" s="19" t="s">
         <v>998</v>
       </c>
-      <c r="D313" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E313" s="11">
-        <v>1</v>
-      </c>
-      <c r="F313" s="19" t="s">
+      <c r="G313" s="11">
+        <v>1</v>
+      </c>
+      <c r="H313" s="11">
+        <v>1</v>
+      </c>
+      <c r="I313" s="12" t="s">
         <v>999</v>
       </c>
-      <c r="G313" s="11">
-        <v>1</v>
-      </c>
-      <c r="H313" s="11">
-        <v>1</v>
-      </c>
-      <c r="I313" s="12" t="s">
-        <v>1000</v>
-      </c>
       <c r="J313" s="37" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="K313" s="35" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="L313" s="36" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="314" spans="1:12" s="11" customFormat="1" ht="16.5">
@@ -15355,7 +15371,7 @@
         <v>313</v>
       </c>
       <c r="C314" s="19" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D314" s="11">
         <v>-1</v>
@@ -15373,10 +15389,10 @@
         <v>1</v>
       </c>
       <c r="I314" s="12" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J314" s="12" t="s">
         <v>1012</v>
-      </c>
-      <c r="J314" s="12" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="315" spans="1:12" ht="16.5">
@@ -15387,7 +15403,7 @@
         <v>314</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D315" s="11">
         <v>-1</v>
@@ -15396,22 +15412,22 @@
         <v>1</v>
       </c>
       <c r="F315" s="19" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G315" s="2">
+        <v>1</v>
+      </c>
+      <c r="H315" s="11">
+        <v>1</v>
+      </c>
+      <c r="I315" s="5" t="s">
         <v>1026</v>
       </c>
-      <c r="G315" s="2">
-        <v>0</v>
-      </c>
-      <c r="H315" s="11">
-        <v>1</v>
-      </c>
-      <c r="I315" s="5" t="s">
+      <c r="J315" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L315" s="5" t="s">
         <v>1027</v>
-      </c>
-      <c r="J315" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="L315" s="5" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="316" spans="1:12" ht="16.5">
@@ -15422,7 +15438,7 @@
         <v>315</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D316" s="11">
         <v>-1</v>
@@ -15431,22 +15447,22 @@
         <v>1</v>
       </c>
       <c r="F316" s="19" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G316" s="2">
+        <v>1</v>
+      </c>
+      <c r="H316" s="11">
+        <v>1</v>
+      </c>
+      <c r="I316" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="G316" s="2">
-        <v>0</v>
-      </c>
-      <c r="H316" s="11">
-        <v>1</v>
-      </c>
-      <c r="I316" s="5" t="s">
+      <c r="J316" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L316" s="5" t="s">
         <v>1030</v>
-      </c>
-      <c r="J316" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="L316" s="5" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="317" spans="1:12" ht="16.5">
@@ -15457,7 +15473,7 @@
         <v>316</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D317" s="11">
         <v>-1</v>
@@ -15466,22 +15482,22 @@
         <v>1</v>
       </c>
       <c r="F317" s="19" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G317" s="2">
+        <v>1</v>
+      </c>
+      <c r="H317" s="11">
+        <v>1</v>
+      </c>
+      <c r="I317" s="5" t="s">
         <v>1032</v>
       </c>
-      <c r="G317" s="2">
-        <v>0</v>
-      </c>
-      <c r="H317" s="11">
-        <v>1</v>
-      </c>
-      <c r="I317" s="5" t="s">
+      <c r="J317" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L317" s="5" t="s">
         <v>1033</v>
-      </c>
-      <c r="J317" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L317" s="5" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="318" spans="1:12" ht="16.5">
@@ -15492,7 +15508,7 @@
         <v>317</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D318" s="11">
         <v>-1</v>
@@ -15501,22 +15517,22 @@
         <v>1</v>
       </c>
       <c r="F318" s="19" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G318" s="2">
+        <v>1</v>
+      </c>
+      <c r="H318" s="11">
+        <v>1</v>
+      </c>
+      <c r="I318" s="5" t="s">
         <v>1035</v>
       </c>
-      <c r="G318" s="2">
-        <v>0</v>
-      </c>
-      <c r="H318" s="11">
-        <v>1</v>
-      </c>
-      <c r="I318" s="5" t="s">
+      <c r="J318" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L318" s="5" t="s">
         <v>1036</v>
-      </c>
-      <c r="J318" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="L318" s="5" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -15527,7 +15543,7 @@
         <v>318</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D319" s="2">
         <v>-1</v>
@@ -15542,10 +15558,42 @@
         <v>1</v>
       </c>
       <c r="I319" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J319" s="5" t="s">
         <v>1039</v>
       </c>
-      <c r="J319" s="5" t="s">
-        <v>1040</v>
+    </row>
+    <row r="320" spans="1:12">
+      <c r="A320" s="2">
+        <v>319</v>
+      </c>
+      <c r="B320" s="2">
+        <v>319</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D320" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E320" s="2">
+        <v>1</v>
+      </c>
+      <c r="F320" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G320" s="2">
+        <v>1</v>
+      </c>
+      <c r="H320" s="2">
+        <v>1</v>
+      </c>
+      <c r="I320" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J320" s="5" t="s">
+        <v>1048</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.9/item_config.xlsx
+++ b/config_3.9/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="1050">
   <si>
     <t>id|行号</t>
   </si>
@@ -4142,15 +4142,19 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_czyhq1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>5～50元红包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>开启后获得优惠券，再商城单笔充值≥50元档次可用</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_icon_hb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>jbzk_icon_jbzk</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4737,7 +4741,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A320" sqref="A320"/>
+      <selection pane="bottomLeft" activeCell="F320" sqref="F320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15551,6 +15555,9 @@
       <c r="E319" s="2">
         <v>1</v>
       </c>
+      <c r="F319" s="5" t="s">
+        <v>1049</v>
+      </c>
       <c r="G319" s="2">
         <v>0</v>
       </c>
@@ -15581,19 +15588,19 @@
         <v>1</v>
       </c>
       <c r="F320" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G320" s="2">
+        <v>1</v>
+      </c>
+      <c r="H320" s="2">
+        <v>1</v>
+      </c>
+      <c r="I320" s="5" t="s">
         <v>1046</v>
       </c>
-      <c r="G320" s="2">
-        <v>1</v>
-      </c>
-      <c r="H320" s="2">
-        <v>1</v>
-      </c>
-      <c r="I320" s="5" t="s">
+      <c r="J320" s="5" t="s">
         <v>1047</v>
-      </c>
-      <c r="J320" s="5" t="s">
-        <v>1048</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.9/item_config.xlsx
+++ b/config_3.9/item_config.xlsx
@@ -4154,7 +4154,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>jbzk_icon_jbzk</t>
+    <t>xrxsfl_jbzk_icon_jbzk</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4741,7 +4741,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F320" sqref="F320"/>
+      <selection pane="bottomLeft" activeCell="F319" sqref="F319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_3.9/item_config.xlsx
+++ b/config_3.9/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3856,10 +3856,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>玫瑰</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>eznhk_icon_3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4103,6 +4099,10 @@
       </rPr>
       <t>"</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4188,7 +4188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4234,12 +4234,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4292,7 +4286,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4392,19 +4386,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -4416,8 +4401,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4699,9 +4687,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L315" sqref="L315:L318"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K127" sqref="K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8866,7 +8854,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D126" s="2">
         <v>-1</v>
@@ -8875,7 +8863,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
@@ -9040,28 +9028,28 @@
       <c r="B131" s="2">
         <v>130</v>
       </c>
-      <c r="C131" s="33" t="s">
+      <c r="C131" s="39" t="s">
         <v>923</v>
       </c>
-      <c r="D131" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E131" s="34">
-        <v>1</v>
-      </c>
-      <c r="F131" s="35" t="s">
+      <c r="D131" s="33">
+        <v>-1</v>
+      </c>
+      <c r="E131" s="33">
+        <v>1</v>
+      </c>
+      <c r="F131" s="34" t="s">
         <v>914</v>
       </c>
-      <c r="G131" s="34">
+      <c r="G131" s="33">
         <v>0</v>
       </c>
-      <c r="H131" s="34">
-        <v>1</v>
-      </c>
-      <c r="I131" s="35" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J131" s="35" t="s">
+      <c r="H131" s="33">
+        <v>1</v>
+      </c>
+      <c r="I131" s="34" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J131" s="34" t="s">
         <v>931</v>
       </c>
     </row>
@@ -10642,7 +10630,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D179" s="2">
         <v>-1</v>
@@ -10679,7 +10667,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D180" s="2">
         <v>-1</v>
@@ -10757,7 +10745,7 @@
         <v>1</v>
       </c>
       <c r="F182" s="23" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G182" s="23">
         <v>1</v>
@@ -14578,109 +14566,109 @@
         <v>918</v>
       </c>
     </row>
-    <row r="292" spans="1:12" s="36" customFormat="1" ht="16.5">
+    <row r="292" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A292" s="11">
         <v>291</v>
       </c>
       <c r="B292" s="11">
         <v>291</v>
       </c>
-      <c r="C292" s="37" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D292" s="36">
-        <v>-1</v>
-      </c>
-      <c r="E292" s="36">
-        <v>1</v>
-      </c>
-      <c r="F292" s="37" t="s">
+      <c r="C292" s="12" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D292" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E292" s="11">
+        <v>1</v>
+      </c>
+      <c r="F292" s="12" t="s">
         <v>929</v>
       </c>
-      <c r="G292" s="36">
-        <v>1</v>
-      </c>
-      <c r="H292" s="36">
+      <c r="G292" s="11">
+        <v>1</v>
+      </c>
+      <c r="H292" s="11">
         <v>33</v>
       </c>
-      <c r="I292" s="37" t="s">
+      <c r="I292" s="12" t="s">
         <v>926</v>
       </c>
-      <c r="J292" s="37" t="s">
+      <c r="J292" s="12" t="s">
         <v>978</v>
       </c>
-      <c r="L292" s="41" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="293" spans="1:12" s="36" customFormat="1" ht="16.5">
+      <c r="L292" s="38" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A293" s="11">
         <v>292</v>
       </c>
       <c r="B293" s="11">
         <v>292</v>
       </c>
-      <c r="C293" s="37" t="s">
+      <c r="C293" s="12" t="s">
         <v>976</v>
       </c>
-      <c r="D293" s="36">
-        <v>-1</v>
-      </c>
-      <c r="E293" s="36">
-        <v>1</v>
-      </c>
-      <c r="F293" s="37" t="s">
+      <c r="D293" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E293" s="11">
+        <v>1</v>
+      </c>
+      <c r="F293" s="12" t="s">
         <v>930</v>
       </c>
-      <c r="G293" s="36">
-        <v>1</v>
-      </c>
-      <c r="H293" s="36">
+      <c r="G293" s="11">
+        <v>1</v>
+      </c>
+      <c r="H293" s="11">
         <v>33</v>
       </c>
-      <c r="I293" s="37" t="s">
+      <c r="I293" s="12" t="s">
         <v>927</v>
       </c>
-      <c r="J293" s="37" t="s">
+      <c r="J293" s="12" t="s">
         <v>979</v>
       </c>
-      <c r="L293" s="41" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="294" spans="1:12" s="36" customFormat="1" ht="16.5">
+      <c r="L293" s="38" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A294" s="11">
         <v>293</v>
       </c>
       <c r="B294" s="11">
         <v>293</v>
       </c>
-      <c r="C294" s="37" t="s">
+      <c r="C294" s="12" t="s">
         <v>977</v>
       </c>
-      <c r="D294" s="36">
-        <v>-1</v>
-      </c>
-      <c r="E294" s="36">
-        <v>1</v>
-      </c>
-      <c r="F294" s="37" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G294" s="36">
-        <v>1</v>
-      </c>
-      <c r="H294" s="36">
+      <c r="D294" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E294" s="11">
+        <v>1</v>
+      </c>
+      <c r="F294" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G294" s="11">
+        <v>1</v>
+      </c>
+      <c r="H294" s="11">
         <v>33</v>
       </c>
-      <c r="I294" s="37" t="s">
+      <c r="I294" s="12" t="s">
         <v>928</v>
       </c>
-      <c r="J294" s="37" t="s">
+      <c r="J294" s="12" t="s">
         <v>980</v>
       </c>
-      <c r="L294" s="41" t="s">
-        <v>1032</v>
+      <c r="L294" s="38" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="295" spans="1:12" s="11" customFormat="1">
@@ -15099,7 +15087,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="308" spans="1:12" s="38" customFormat="1" ht="16.5">
+    <row r="308" spans="1:12" s="35" customFormat="1" ht="16.5">
       <c r="A308" s="11">
         <v>307</v>
       </c>
@@ -15107,7 +15095,7 @@
         <v>307</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D308" s="11">
         <v>-1</v>
@@ -15127,17 +15115,17 @@
       <c r="I308" s="12" t="s">
         <v>982</v>
       </c>
-      <c r="J308" s="40" t="s">
+      <c r="J308" s="37" t="s">
         <v>1001</v>
       </c>
-      <c r="K308" s="38" t="s">
+      <c r="K308" s="35" t="s">
         <v>983</v>
       </c>
-      <c r="L308" s="39" t="s">
+      <c r="L308" s="36" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="309" spans="1:12" s="38" customFormat="1" ht="16.5">
+    <row r="309" spans="1:12" s="35" customFormat="1" ht="16.5">
       <c r="A309" s="11">
         <v>308</v>
       </c>
@@ -15165,17 +15153,17 @@
       <c r="I309" s="12" t="s">
         <v>987</v>
       </c>
-      <c r="J309" s="40" t="s">
+      <c r="J309" s="37" t="s">
         <v>1002</v>
       </c>
-      <c r="K309" s="38" t="s">
+      <c r="K309" s="35" t="s">
         <v>983</v>
       </c>
-      <c r="L309" s="39" t="s">
+      <c r="L309" s="36" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="310" spans="1:12" s="38" customFormat="1" ht="16.5">
+    <row r="310" spans="1:12" s="35" customFormat="1" ht="16.5">
       <c r="A310" s="11">
         <v>309</v>
       </c>
@@ -15203,17 +15191,17 @@
       <c r="I310" s="12" t="s">
         <v>991</v>
       </c>
-      <c r="J310" s="40" t="s">
+      <c r="J310" s="37" t="s">
         <v>1003</v>
       </c>
-      <c r="K310" s="38" t="s">
+      <c r="K310" s="35" t="s">
         <v>983</v>
       </c>
-      <c r="L310" s="39" t="s">
+      <c r="L310" s="36" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="311" spans="1:12" s="38" customFormat="1" ht="16.5">
+    <row r="311" spans="1:12" s="35" customFormat="1" ht="16.5">
       <c r="A311" s="11">
         <v>310</v>
       </c>
@@ -15241,17 +15229,17 @@
       <c r="I311" s="12" t="s">
         <v>994</v>
       </c>
-      <c r="J311" s="40" t="s">
+      <c r="J311" s="37" t="s">
         <v>1004</v>
       </c>
-      <c r="K311" s="38" t="s">
+      <c r="K311" s="35" t="s">
         <v>983</v>
       </c>
-      <c r="L311" s="39" t="s">
+      <c r="L311" s="36" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="312" spans="1:12" s="38" customFormat="1" ht="16.5">
+    <row r="312" spans="1:12" s="35" customFormat="1" ht="16.5">
       <c r="A312" s="11">
         <v>311</v>
       </c>
@@ -15279,17 +15267,17 @@
       <c r="I312" s="12" t="s">
         <v>997</v>
       </c>
-      <c r="J312" s="40" t="s">
+      <c r="J312" s="37" t="s">
         <v>1005</v>
       </c>
-      <c r="K312" s="38" t="s">
+      <c r="K312" s="35" t="s">
         <v>983</v>
       </c>
-      <c r="L312" s="39" t="s">
+      <c r="L312" s="36" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="313" spans="1:12" s="38" customFormat="1" ht="16.5">
+    <row r="313" spans="1:12" s="35" customFormat="1" ht="16.5">
       <c r="A313" s="11">
         <v>312</v>
       </c>
@@ -15317,13 +15305,13 @@
       <c r="I313" s="12" t="s">
         <v>1000</v>
       </c>
-      <c r="J313" s="40" t="s">
+      <c r="J313" s="37" t="s">
         <v>1006</v>
       </c>
-      <c r="K313" s="38" t="s">
+      <c r="K313" s="35" t="s">
         <v>983</v>
       </c>
-      <c r="L313" s="39" t="s">
+      <c r="L313" s="36" t="s">
         <v>988</v>
       </c>
     </row>
@@ -15335,7 +15323,7 @@
         <v>313</v>
       </c>
       <c r="C314" s="19" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D314" s="11">
         <v>-1</v>
@@ -15353,10 +15341,10 @@
         <v>1</v>
       </c>
       <c r="I314" s="12" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J314" s="12" t="s">
         <v>1013</v>
-      </c>
-      <c r="J314" s="12" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="315" spans="1:12" ht="16.5">
@@ -15367,7 +15355,7 @@
         <v>314</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D315" s="11">
         <v>-1</v>
@@ -15379,13 +15367,13 @@
         <v>981</v>
       </c>
       <c r="I315" s="5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J315" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="L315" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="316" spans="1:12" ht="16.5">
@@ -15396,7 +15384,7 @@
         <v>315</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D316" s="11">
         <v>-1</v>
@@ -15408,13 +15396,13 @@
         <v>986</v>
       </c>
       <c r="I316" s="5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J316" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L316" s="5" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="317" spans="1:12" ht="16.5">
@@ -15425,7 +15413,7 @@
         <v>316</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D317" s="11">
         <v>-1</v>
@@ -15437,13 +15425,13 @@
         <v>990</v>
       </c>
       <c r="I317" s="5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J317" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="L317" s="5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="318" spans="1:12" ht="16.5">
@@ -15454,7 +15442,7 @@
         <v>317</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D318" s="11">
         <v>-1</v>
@@ -15466,13 +15454,13 @@
         <v>993</v>
       </c>
       <c r="I318" s="5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="J318" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="L318" s="5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="319" spans="1:12">
